--- a/InputData/trans/SYBCbVT/Start Year Battery Cap by Veh Type.xlsx
+++ b/InputData/trans/SYBCbVT/Start Year Battery Cap by Veh Type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MA\trans\SYBCbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\SYBCbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E0E7001-D5DF-4A22-8886-15CB807A1E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA0F55E-A73F-4892-A957-D4FA5443E081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="258">
   <si>
     <t>Sources:</t>
   </si>
@@ -916,9 +916,6 @@
   <si>
     <t>Estimated freight vehicle miles traveled by vehicle class</t>
   </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
 </sst>
 </file>
 
@@ -931,7 +928,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,7 +1415,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1631,7 +1628,6 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2233,30 +2229,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="104.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="104">
-        <v>45391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2264,97 +2254,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2">
       <c r="B24" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>257</v>
       </c>
@@ -2377,19 +2367,19 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0.7</v>
       </c>
@@ -2397,7 +2387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <f>A2/10^3</f>
         <v>6.9999999999999999E-4</v>
@@ -2406,13 +2396,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>75</v>
       </c>
@@ -2420,7 +2410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>300</v>
       </c>
@@ -2428,7 +2418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <f>AVERAGE(A6:A7)</f>
         <v>187.5</v>
@@ -2437,7 +2427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <f>A8/10^3</f>
         <v>0.1875</v>
@@ -2446,13 +2436,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>212</v>
       </c>
@@ -2460,7 +2450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <f>A12/10^3</f>
         <v>0.21199999999999999</v>
@@ -2469,13 +2459,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>70</v>
       </c>
@@ -2483,7 +2473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>90</v>
       </c>
@@ -2491,7 +2481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>60</v>
       </c>
@@ -2499,7 +2489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="7">
         <f>AVERAGE(A16:A18)</f>
         <v>73.333333333333329</v>
@@ -2508,7 +2498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="6">
         <f>A19/10^3</f>
         <v>7.3333333333333334E-2</v>
@@ -2517,13 +2507,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>18.399999999999999</v>
       </c>
@@ -2531,7 +2521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>8.8000000000000007</v>
       </c>
@@ -2539,7 +2529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <f>AVERAGE(A23:A24)</f>
         <v>13.6</v>
@@ -2548,7 +2538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <f>A25/10^3</f>
         <v>1.3599999999999999E-2</v>
@@ -2570,9 +2560,9 @@
       <selection activeCell="J189" sqref="J189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
@@ -2611,7 +2601,7 @@
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -2652,7 +2642,7 @@
       <c r="AF2" s="12"/>
       <c r="AG2" s="12"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="A3" s="12" t="s">
         <v>45</v>
       </c>
@@ -2691,7 +2681,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="A4" s="12" t="s">
         <v>46</v>
       </c>
@@ -2730,7 +2720,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="A5" s="12" t="s">
         <v>47</v>
       </c>
@@ -2769,7 +2759,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -2804,7 +2794,7 @@
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -2835,7 +2825,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33">
       <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
@@ -2881,7 +2871,7 @@
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33">
       <c r="A9" s="12" t="s">
         <v>50</v>
       </c>
@@ -2927,7 +2917,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -2973,7 +2963,7 @@
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
@@ -3019,7 +3009,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33">
       <c r="A12" s="12" t="s">
         <v>53</v>
       </c>
@@ -3066,7 +3056,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="12"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="A13" s="12" t="s">
         <v>54</v>
       </c>
@@ -3112,7 +3102,7 @@
       <c r="AF13" s="12"/>
       <c r="AG13" s="12"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14" s="12" t="s">
         <v>55</v>
       </c>
@@ -3158,7 +3148,7 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="12"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="A15" s="12" t="s">
         <v>56</v>
       </c>
@@ -3204,7 +3194,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -3250,7 +3240,7 @@
       <c r="AF16" s="12"/>
       <c r="AG16" s="12"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33">
       <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
@@ -3296,7 +3286,7 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="12"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33">
       <c r="A18" s="12" t="s">
         <v>59</v>
       </c>
@@ -3343,7 +3333,7 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="12"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33">
       <c r="A19" s="12" t="s">
         <v>60</v>
       </c>
@@ -3389,7 +3379,7 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="12"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33">
       <c r="A20" s="12" t="s">
         <v>61</v>
       </c>
@@ -3435,7 +3425,7 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33">
       <c r="A21" s="12" t="s">
         <v>62</v>
       </c>
@@ -3481,7 +3471,7 @@
       <c r="AF21" s="12"/>
       <c r="AG21" s="12"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33">
       <c r="A22" s="12" t="s">
         <v>63</v>
       </c>
@@ -3527,7 +3517,7 @@
       <c r="AF22" s="12"/>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33">
       <c r="A23" s="12" t="s">
         <v>64</v>
       </c>
@@ -3573,7 +3563,7 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33">
       <c r="A24" s="12" t="s">
         <v>65</v>
       </c>
@@ -3620,7 +3610,7 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="12"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33">
       <c r="A25" s="12" t="s">
         <v>66</v>
       </c>
@@ -3666,7 +3656,7 @@
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33">
       <c r="A26" s="12" t="s">
         <v>67</v>
       </c>
@@ -3712,7 +3702,7 @@
       <c r="AF26" s="12"/>
       <c r="AG26" s="12"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33">
       <c r="A27" s="12" t="s">
         <v>68</v>
       </c>
@@ -3758,7 +3748,7 @@
       <c r="AF27" s="12"/>
       <c r="AG27" s="12"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33">
       <c r="A28" s="12" t="s">
         <v>69</v>
       </c>
@@ -3804,7 +3794,7 @@
       <c r="AF28" s="12"/>
       <c r="AG28" s="12"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33">
       <c r="A29" s="12" t="s">
         <v>70</v>
       </c>
@@ -3850,7 +3840,7 @@
       <c r="AF29" s="12"/>
       <c r="AG29" s="12"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33">
       <c r="A30" s="12" t="s">
         <v>71</v>
       </c>
@@ -3897,7 +3887,7 @@
       <c r="AF30" s="12"/>
       <c r="AG30" s="12"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33">
       <c r="A31" s="12" t="s">
         <v>72</v>
       </c>
@@ -3943,7 +3933,7 @@
       <c r="AF31" s="12"/>
       <c r="AG31" s="12"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33">
       <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
@@ -3989,7 +3979,7 @@
       <c r="AF32" s="12"/>
       <c r="AG32" s="12"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -4023,7 +4013,7 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -4057,7 +4047,7 @@
       <c r="AF34" s="12"/>
       <c r="AG34" s="12"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33">
       <c r="A35" s="14" t="s">
         <v>74</v>
       </c>
@@ -4103,7 +4093,7 @@
       <c r="AF35" s="12"/>
       <c r="AG35" s="12"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33">
       <c r="A36" s="12" t="s">
         <v>75</v>
       </c>
@@ -4149,7 +4139,7 @@
       <c r="AF36" s="12"/>
       <c r="AG36" s="12"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33">
       <c r="A37" s="12" t="s">
         <v>76</v>
       </c>
@@ -4195,7 +4185,7 @@
       <c r="AF37" s="12"/>
       <c r="AG37" s="12"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33">
       <c r="A38" s="12" t="s">
         <v>77</v>
       </c>
@@ -4241,7 +4231,7 @@
       <c r="AF38" s="12"/>
       <c r="AG38" s="12"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33">
       <c r="A39" s="12" t="s">
         <v>78</v>
       </c>
@@ -4288,7 +4278,7 @@
       <c r="AF39" s="12"/>
       <c r="AG39" s="12"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33">
       <c r="A40" s="12" t="s">
         <v>79</v>
       </c>
@@ -4334,7 +4324,7 @@
       <c r="AF40" s="12"/>
       <c r="AG40" s="12"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33">
       <c r="A41" s="12" t="s">
         <v>80</v>
       </c>
@@ -4380,7 +4370,7 @@
       <c r="AF41" s="12"/>
       <c r="AG41" s="12"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33">
       <c r="A42" s="12" t="s">
         <v>81</v>
       </c>
@@ -4426,7 +4416,7 @@
       <c r="AF42" s="12"/>
       <c r="AG42" s="12"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33">
       <c r="A43" s="12" t="s">
         <v>82</v>
       </c>
@@ -4472,7 +4462,7 @@
       <c r="AF43" s="12"/>
       <c r="AG43" s="12"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33">
       <c r="A44" s="12" t="s">
         <v>83</v>
       </c>
@@ -4518,7 +4508,7 @@
       <c r="AF44" s="12"/>
       <c r="AG44" s="12"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33">
       <c r="A45" s="12" t="s">
         <v>84</v>
       </c>
@@ -4565,7 +4555,7 @@
       <c r="AF45" s="12"/>
       <c r="AG45" s="12"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33">
       <c r="A46" s="12" t="s">
         <v>85</v>
       </c>
@@ -4611,7 +4601,7 @@
       <c r="AF46" s="12"/>
       <c r="AG46" s="12"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33">
       <c r="A47" s="12" t="s">
         <v>86</v>
       </c>
@@ -4657,7 +4647,7 @@
       <c r="AF47" s="12"/>
       <c r="AG47" s="12"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33">
       <c r="A48" s="12" t="s">
         <v>87</v>
       </c>
@@ -4703,7 +4693,7 @@
       <c r="AF48" s="12"/>
       <c r="AG48" s="12"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33">
       <c r="A49" s="12" t="s">
         <v>88</v>
       </c>
@@ -4749,7 +4739,7 @@
       <c r="AF49" s="12"/>
       <c r="AG49" s="12"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33">
       <c r="A50" s="12" t="s">
         <v>89</v>
       </c>
@@ -4795,7 +4785,7 @@
       <c r="AF50" s="12"/>
       <c r="AG50" s="12"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33">
       <c r="A51" s="12" t="s">
         <v>90</v>
       </c>
@@ -4842,7 +4832,7 @@
       <c r="AF51" s="12"/>
       <c r="AG51" s="12"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33">
       <c r="A52" s="12" t="s">
         <v>91</v>
       </c>
@@ -4888,7 +4878,7 @@
       <c r="AF52" s="12"/>
       <c r="AG52" s="12"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33">
       <c r="A53" s="12" t="s">
         <v>92</v>
       </c>
@@ -4934,7 +4924,7 @@
       <c r="AF53" s="12"/>
       <c r="AG53" s="12"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33">
       <c r="A54" s="12" t="s">
         <v>93</v>
       </c>
@@ -4980,7 +4970,7 @@
       <c r="AF54" s="12"/>
       <c r="AG54" s="12"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33">
       <c r="A55" s="12" t="s">
         <v>94</v>
       </c>
@@ -5026,7 +5016,7 @@
       <c r="AF55" s="12"/>
       <c r="AG55" s="12"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33">
       <c r="A56" s="12" t="s">
         <v>95</v>
       </c>
@@ -5072,7 +5062,7 @@
       <c r="AF56" s="12"/>
       <c r="AG56" s="12"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33">
       <c r="A57" s="12" t="s">
         <v>96</v>
       </c>
@@ -5119,7 +5109,7 @@
       <c r="AF57" s="12"/>
       <c r="AG57" s="12"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33">
       <c r="A58" s="12" t="s">
         <v>97</v>
       </c>
@@ -5165,7 +5155,7 @@
       <c r="AF58" s="12"/>
       <c r="AG58" s="12"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33">
       <c r="A59" s="12" t="s">
         <v>98</v>
       </c>
@@ -5211,7 +5201,7 @@
       <c r="AF59" s="12"/>
       <c r="AG59" s="12"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -5245,7 +5235,7 @@
       <c r="AF60" s="12"/>
       <c r="AG60" s="12"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33">
       <c r="A61" s="17" t="s">
         <v>99</v>
       </c>
@@ -5281,7 +5271,7 @@
       <c r="AF61" s="12"/>
       <c r="AG61" s="12"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33">
       <c r="A62" s="18" t="s">
         <v>100</v>
       </c>
@@ -5317,7 +5307,7 @@
       <c r="AF62" s="12"/>
       <c r="AG62" s="12"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33">
       <c r="A63" s="12"/>
       <c r="C63" s="20">
         <v>2020</v>
@@ -5382,7 +5372,7 @@
       <c r="AF63" s="12"/>
       <c r="AG63" s="12"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33">
       <c r="A64" s="21" t="s">
         <v>50</v>
       </c>
@@ -5466,7 +5456,7 @@
       <c r="AF64" s="12"/>
       <c r="AG64" s="12"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33">
       <c r="A65" s="21" t="s">
         <v>51</v>
       </c>
@@ -5550,7 +5540,7 @@
       <c r="AF65" s="12"/>
       <c r="AG65" s="12"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33">
       <c r="A66" s="21" t="s">
         <v>52</v>
       </c>
@@ -5634,7 +5624,7 @@
       <c r="AF66" s="12"/>
       <c r="AG66" s="12"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33">
       <c r="A67" s="21" t="s">
         <v>53</v>
       </c>
@@ -5718,7 +5708,7 @@
       <c r="AF67" s="12"/>
       <c r="AG67" s="12"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33">
       <c r="A68" s="21" t="s">
         <v>54</v>
       </c>
@@ -5802,7 +5792,7 @@
       <c r="AF68" s="12"/>
       <c r="AG68" s="12"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33">
       <c r="A69" s="21" t="s">
         <v>55</v>
       </c>
@@ -5886,7 +5876,7 @@
       <c r="AF69" s="12"/>
       <c r="AG69" s="12"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33">
       <c r="A70" s="21" t="s">
         <v>56</v>
       </c>
@@ -5970,7 +5960,7 @@
       <c r="AF70" s="12"/>
       <c r="AG70" s="12"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33">
       <c r="A71" s="21" t="s">
         <v>57</v>
       </c>
@@ -6054,7 +6044,7 @@
       <c r="AF71" s="12"/>
       <c r="AG71" s="12"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33">
       <c r="A72" s="21" t="s">
         <v>58</v>
       </c>
@@ -6138,7 +6128,7 @@
       <c r="AF72" s="12"/>
       <c r="AG72" s="12"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33">
       <c r="A73" s="21" t="s">
         <v>59</v>
       </c>
@@ -6222,7 +6212,7 @@
       <c r="AF73" s="12"/>
       <c r="AG73" s="12"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33">
       <c r="A74" s="21" t="s">
         <v>60</v>
       </c>
@@ -6306,7 +6296,7 @@
       <c r="AF74" s="12"/>
       <c r="AG74" s="12"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33">
       <c r="A75" s="21" t="s">
         <v>61</v>
       </c>
@@ -6390,7 +6380,7 @@
       <c r="AF75" s="12"/>
       <c r="AG75" s="12"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33">
       <c r="A76" s="21" t="s">
         <v>62</v>
       </c>
@@ -6474,7 +6464,7 @@
       <c r="AF76" s="12"/>
       <c r="AG76" s="12"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33">
       <c r="A77" s="21" t="s">
         <v>63</v>
       </c>
@@ -6558,7 +6548,7 @@
       <c r="AF77" s="12"/>
       <c r="AG77" s="12"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33">
       <c r="A78" s="21" t="s">
         <v>64</v>
       </c>
@@ -6642,7 +6632,7 @@
       <c r="AF78" s="12"/>
       <c r="AG78" s="12"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33">
       <c r="A79" s="21" t="s">
         <v>65</v>
       </c>
@@ -6726,7 +6716,7 @@
       <c r="AF79" s="12"/>
       <c r="AG79" s="12"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33">
       <c r="A80" s="21" t="s">
         <v>66</v>
       </c>
@@ -6810,7 +6800,7 @@
       <c r="AF80" s="12"/>
       <c r="AG80" s="12"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33">
       <c r="A81" s="21" t="s">
         <v>67</v>
       </c>
@@ -6894,7 +6884,7 @@
       <c r="AF81" s="12"/>
       <c r="AG81" s="12"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33">
       <c r="A82" s="21" t="s">
         <v>68</v>
       </c>
@@ -6978,7 +6968,7 @@
       <c r="AF82" s="12"/>
       <c r="AG82" s="12"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33">
       <c r="A83" s="21" t="s">
         <v>69</v>
       </c>
@@ -7062,7 +7052,7 @@
       <c r="AF83" s="12"/>
       <c r="AG83" s="12"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33">
       <c r="A84" s="21" t="s">
         <v>70</v>
       </c>
@@ -7146,7 +7136,7 @@
       <c r="AF84" s="12"/>
       <c r="AG84" s="12"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33">
       <c r="A85" s="21" t="s">
         <v>71</v>
       </c>
@@ -7230,7 +7220,7 @@
       <c r="AF85" s="12"/>
       <c r="AG85" s="12"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33">
       <c r="A86" s="21" t="s">
         <v>72</v>
       </c>
@@ -7314,7 +7304,7 @@
       <c r="AF86" s="12"/>
       <c r="AG86" s="12"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33">
       <c r="A87" s="21" t="s">
         <v>73</v>
       </c>
@@ -7398,7 +7388,7 @@
       <c r="AF87" s="12"/>
       <c r="AG87" s="12"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33">
       <c r="A89" s="17" t="s">
         <v>101</v>
       </c>
@@ -7435,7 +7425,7 @@
       <c r="AF89" s="12"/>
       <c r="AG89" s="12"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33">
       <c r="A90" s="18" t="s">
         <v>102</v>
       </c>
@@ -7472,7 +7462,7 @@
       <c r="AF90" s="12"/>
       <c r="AG90" s="12"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33">
       <c r="A91" s="12"/>
       <c r="C91" s="20">
         <v>2020</v>
@@ -7538,7 +7528,7 @@
       <c r="AF91" s="12"/>
       <c r="AG91" s="12"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33">
       <c r="A92" s="21" t="s">
         <v>75</v>
       </c>
@@ -7622,7 +7612,7 @@
       <c r="AF92" s="12"/>
       <c r="AG92" s="12"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33">
       <c r="A93" s="21" t="s">
         <v>76</v>
       </c>
@@ -7706,7 +7696,7 @@
       <c r="AF93" s="12"/>
       <c r="AG93" s="12"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33">
       <c r="A94" s="21" t="s">
         <v>77</v>
       </c>
@@ -7790,7 +7780,7 @@
       <c r="AF94" s="12"/>
       <c r="AG94" s="12"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33">
       <c r="A95" s="21" t="s">
         <v>78</v>
       </c>
@@ -7874,7 +7864,7 @@
       <c r="AF95" s="12"/>
       <c r="AG95" s="12"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33">
       <c r="A96" s="21" t="s">
         <v>79</v>
       </c>
@@ -7958,7 +7948,7 @@
       <c r="AF96" s="12"/>
       <c r="AG96" s="12"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33">
       <c r="A97" s="21" t="s">
         <v>80</v>
       </c>
@@ -8042,7 +8032,7 @@
       <c r="AF97" s="12"/>
       <c r="AG97" s="12"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33">
       <c r="A98" s="21" t="s">
         <v>81</v>
       </c>
@@ -8126,7 +8116,7 @@
       <c r="AF98" s="12"/>
       <c r="AG98" s="12"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33">
       <c r="A99" s="21" t="s">
         <v>82</v>
       </c>
@@ -8210,7 +8200,7 @@
       <c r="AF99" s="12"/>
       <c r="AG99" s="12"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33">
       <c r="A100" s="21" t="s">
         <v>83</v>
       </c>
@@ -8294,7 +8284,7 @@
       <c r="AF100" s="12"/>
       <c r="AG100" s="12"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33">
       <c r="A101" s="21" t="s">
         <v>84</v>
       </c>
@@ -8378,7 +8368,7 @@
       <c r="AF101" s="12"/>
       <c r="AG101" s="12"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33">
       <c r="A102" s="21" t="s">
         <v>85</v>
       </c>
@@ -8462,7 +8452,7 @@
       <c r="AF102" s="12"/>
       <c r="AG102" s="12"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33">
       <c r="A103" s="21" t="s">
         <v>86</v>
       </c>
@@ -8546,7 +8536,7 @@
       <c r="AF103" s="12"/>
       <c r="AG103" s="12"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33">
       <c r="A104" s="21" t="s">
         <v>87</v>
       </c>
@@ -8630,7 +8620,7 @@
       <c r="AF104" s="12"/>
       <c r="AG104" s="12"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33">
       <c r="A105" s="21" t="s">
         <v>88</v>
       </c>
@@ -8714,7 +8704,7 @@
       <c r="AF105" s="12"/>
       <c r="AG105" s="12"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33">
       <c r="A106" s="21" t="s">
         <v>89</v>
       </c>
@@ -8798,7 +8788,7 @@
       <c r="AF106" s="12"/>
       <c r="AG106" s="12"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33">
       <c r="A107" s="21" t="s">
         <v>90</v>
       </c>
@@ -8882,7 +8872,7 @@
       <c r="AF107" s="12"/>
       <c r="AG107" s="12"/>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33">
       <c r="A108" s="21" t="s">
         <v>91</v>
       </c>
@@ -8966,7 +8956,7 @@
       <c r="AF108" s="12"/>
       <c r="AG108" s="12"/>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33">
       <c r="A109" s="21" t="s">
         <v>92</v>
       </c>
@@ -9050,7 +9040,7 @@
       <c r="AF109" s="12"/>
       <c r="AG109" s="12"/>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33">
       <c r="A110" s="21" t="s">
         <v>93</v>
       </c>
@@ -9126,7 +9116,7 @@
       <c r="AF110" s="12"/>
       <c r="AG110" s="12"/>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33">
       <c r="A111" s="21" t="s">
         <v>94</v>
       </c>
@@ -9202,7 +9192,7 @@
       <c r="AF111" s="12"/>
       <c r="AG111" s="12"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33">
       <c r="A112" s="21" t="s">
         <v>95</v>
       </c>
@@ -9278,7 +9268,7 @@
       <c r="AF112" s="12"/>
       <c r="AG112" s="12"/>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33">
       <c r="A113" s="21" t="s">
         <v>96</v>
       </c>
@@ -9364,7 +9354,7 @@
       <c r="AF113" s="12"/>
       <c r="AG113" s="12"/>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33">
       <c r="A114" s="21" t="s">
         <v>97</v>
       </c>
@@ -9440,7 +9430,7 @@
       <c r="AF114" s="12"/>
       <c r="AG114" s="12"/>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33">
       <c r="A115" s="21" t="s">
         <v>98</v>
       </c>
@@ -9516,8 +9506,8 @@
       <c r="AF115" s="12"/>
       <c r="AG115" s="12"/>
     </row>
-    <row r="117" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:33" ht="15.75" thickBot="1"/>
+    <row r="118" spans="1:33" ht="15.75" thickBot="1">
       <c r="A118" s="20" t="s">
         <v>104</v>
       </c>
@@ -9537,7 +9527,7 @@
       <c r="O118" s="12"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="27"/>
-      <c r="R118" s="107"/>
+      <c r="R118" s="106"/>
       <c r="S118" s="28"/>
       <c r="T118" s="29"/>
       <c r="U118" s="29"/>
@@ -9552,25 +9542,25 @@
       <c r="AD118" s="29"/>
       <c r="AE118" s="29"/>
     </row>
-    <row r="119" spans="1:33" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="110" t="s">
+    <row r="119" spans="1:33" ht="23.25" thickBot="1">
+      <c r="A119" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="B119" s="112" t="s">
+      <c r="B119" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="113" t="s">
+      <c r="C119" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="D119" s="114"/>
-      <c r="E119" s="114"/>
-      <c r="F119" s="114"/>
-      <c r="G119" s="113" t="s">
+      <c r="D119" s="113"/>
+      <c r="E119" s="113"/>
+      <c r="F119" s="113"/>
+      <c r="G119" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="H119" s="114"/>
-      <c r="I119" s="114"/>
-      <c r="J119" s="114"/>
+      <c r="H119" s="113"/>
+      <c r="I119" s="113"/>
+      <c r="J119" s="113"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
@@ -9578,8 +9568,8 @@
       <c r="O119" s="12"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="27"/>
-      <c r="R119" s="108"/>
-      <c r="S119" s="115" t="s">
+      <c r="R119" s="107"/>
+      <c r="S119" s="114" t="s">
         <v>108</v>
       </c>
       <c r="T119" s="28" t="s">
@@ -9619,9 +9609,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="111"/>
-      <c r="B120" s="112"/>
+    <row r="120" spans="1:33" ht="15.75" thickBot="1">
+      <c r="A120" s="110"/>
+      <c r="B120" s="111"/>
       <c r="C120" s="31">
         <v>2020</v>
       </c>
@@ -9653,8 +9643,8 @@
       <c r="O120" s="12"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="27"/>
-      <c r="R120" s="109"/>
-      <c r="S120" s="116"/>
+      <c r="R120" s="108"/>
+      <c r="S120" s="115"/>
       <c r="T120" s="33">
         <v>2022</v>
       </c>
@@ -9692,7 +9682,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:33" ht="34.5" thickBot="1">
       <c r="A121" s="35" t="s">
         <v>109</v>
       </c>
@@ -9763,7 +9753,7 @@
         <v>252.86951483455164</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:33" ht="23.25" thickBot="1">
       <c r="A122" s="41" t="s">
         <v>110</v>
       </c>
@@ -9792,41 +9782,41 @@
       <c r="N122" s="12"/>
       <c r="O122" s="12"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="117"/>
+      <c r="Q122" s="116"/>
       <c r="R122" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="S122" s="118"/>
-      <c r="T122" s="105" t="s">
+      <c r="S122" s="117"/>
+      <c r="T122" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="U122" s="105" t="s">
+      <c r="U122" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="V122" s="105" t="s">
+      <c r="V122" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="W122" s="105" t="s">
+      <c r="W122" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="X122" s="105" t="s">
+      <c r="X122" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="Y122" s="105" t="s">
+      <c r="Y122" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="Z122" s="105" t="s">
+      <c r="Z122" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="AA122" s="105" t="s">
+      <c r="AA122" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="AB122" s="105"/>
-      <c r="AC122" s="105"/>
-      <c r="AD122" s="105"/>
-      <c r="AE122" s="105"/>
-    </row>
-    <row r="123" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB122" s="104"/>
+      <c r="AC122" s="104"/>
+      <c r="AD122" s="104"/>
+      <c r="AE122" s="104"/>
+    </row>
+    <row r="123" spans="1:33" ht="15.75" thickBot="1">
       <c r="A123" s="35" t="s">
         <v>46</v>
       </c>
@@ -9855,25 +9845,25 @@
       <c r="N123" s="12"/>
       <c r="O123" s="12"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="117"/>
+      <c r="Q123" s="116"/>
       <c r="R123" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="S123" s="119"/>
-      <c r="T123" s="106"/>
-      <c r="U123" s="106"/>
-      <c r="V123" s="106"/>
-      <c r="W123" s="106"/>
-      <c r="X123" s="106"/>
-      <c r="Y123" s="106"/>
-      <c r="Z123" s="106"/>
-      <c r="AA123" s="106"/>
-      <c r="AB123" s="106"/>
-      <c r="AC123" s="106"/>
-      <c r="AD123" s="106"/>
-      <c r="AE123" s="106"/>
-    </row>
-    <row r="124" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S123" s="118"/>
+      <c r="T123" s="105"/>
+      <c r="U123" s="105"/>
+      <c r="V123" s="105"/>
+      <c r="W123" s="105"/>
+      <c r="X123" s="105"/>
+      <c r="Y123" s="105"/>
+      <c r="Z123" s="105"/>
+      <c r="AA123" s="105"/>
+      <c r="AB123" s="105"/>
+      <c r="AC123" s="105"/>
+      <c r="AD123" s="105"/>
+      <c r="AE123" s="105"/>
+    </row>
+    <row r="124" spans="1:33" ht="15.75" thickBot="1">
       <c r="A124" s="41" t="s">
         <v>111</v>
       </c>
@@ -9946,7 +9936,7 @@
         <v>0.30309995733807726</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:33" ht="15.75" thickBot="1">
       <c r="A125" s="35" t="s">
         <v>109</v>
       </c>
@@ -10029,7 +10019,7 @@
         <v>0.31939450393345609</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:33" ht="15.75" thickBot="1">
       <c r="A126" s="41" t="s">
         <v>109</v>
       </c>
@@ -10110,7 +10100,7 @@
         <v>0.33656503959554668</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:33" ht="15.75" thickBot="1">
       <c r="A127" s="35" t="s">
         <v>109</v>
       </c>
@@ -10191,7 +10181,7 @@
         <v>0.35465865718701378</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:33" ht="15.75" thickBot="1">
       <c r="A128" s="41" t="s">
         <v>109</v>
       </c>
@@ -10272,7 +10262,7 @@
         <v>0.37372498126617681</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31" ht="15.75" thickBot="1">
       <c r="A129" s="35" t="s">
         <v>109</v>
       </c>
@@ -10353,7 +10343,7 @@
         <v>0.3927913053453399</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31" ht="23.25" thickBot="1">
       <c r="A130" s="41" t="s">
         <v>109</v>
       </c>
@@ -10436,7 +10426,7 @@
         <v>43.366609280678752</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" ht="15.75" thickBot="1">
       <c r="A131" s="35" t="s">
         <v>110</v>
       </c>
@@ -10519,7 +10509,7 @@
         <v>60.930643827305474</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:31" ht="15.75" thickBot="1">
       <c r="A132" s="41" t="s">
         <v>110</v>
       </c>
@@ -10600,7 +10590,7 @@
         <v>80.257817134322678</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31" ht="15.75" thickBot="1">
       <c r="A133" s="35" t="s">
         <v>110</v>
       </c>
@@ -10681,7 +10671,7 @@
         <v>101.48693882582241</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" ht="15.75" thickBot="1">
       <c r="A134" s="41" t="s">
         <v>110</v>
       </c>
@@ -10762,7 +10752,7 @@
         <v>124.76664759193905</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31" ht="15.75" thickBot="1">
       <c r="A135" s="35" t="s">
         <v>110</v>
       </c>
@@ -10843,7 +10833,7 @@
         <v>149.86499034714507</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31" ht="15.75" thickBot="1">
       <c r="A136" s="41" t="s">
         <v>110</v>
       </c>
@@ -10926,7 +10916,7 @@
         <v>64.187199212787178</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" ht="15.75" thickBot="1">
       <c r="A137" s="35" t="s">
         <v>46</v>
       </c>
@@ -11009,7 +10999,7 @@
         <v>61.594360138983198</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" ht="15.75" thickBot="1">
       <c r="A138" s="41" t="s">
         <v>46</v>
       </c>
@@ -11090,7 +11080,7 @@
         <v>59.493624410996297</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" ht="15.75" thickBot="1">
       <c r="A139" s="35" t="s">
         <v>46</v>
       </c>
@@ -11171,7 +11161,7 @@
         <v>57.704154570920309</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" ht="15.75" thickBot="1">
       <c r="A140" s="41" t="s">
         <v>46</v>
       </c>
@@ -11252,7 +11242,7 @@
         <v>56.691118280256852</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" ht="15.75" thickBot="1">
       <c r="A141" s="35" t="s">
         <v>46</v>
       </c>
@@ -11333,7 +11323,7 @@
         <v>56.691118280256852</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" ht="15.75" thickBot="1">
       <c r="A142" s="41" t="s">
         <v>46</v>
       </c>
@@ -11416,7 +11406,7 @@
         <v>0.44039766865078672</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" ht="15.75" thickBot="1">
       <c r="A143" s="35" t="s">
         <v>111</v>
       </c>
@@ -11499,7 +11489,7 @@
         <v>0.4423415530336538</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" ht="15.75" thickBot="1">
       <c r="A144" s="41" t="s">
         <v>111</v>
       </c>
@@ -11580,7 +11570,7 @@
         <v>0.44429401758567916</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:31" ht="15.75" thickBot="1">
       <c r="A145" s="35" t="s">
         <v>111</v>
       </c>
@@ -11661,7 +11651,7 @@
         <v>0.44625510017912701</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:31" ht="15.75" thickBot="1">
       <c r="A146" s="41" t="s">
         <v>111</v>
       </c>
@@ -11742,7 +11732,7 @@
         <v>0.44822483885342695</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31" ht="15.75" thickBot="1">
       <c r="A147" s="35" t="s">
         <v>111</v>
       </c>
@@ -11823,7 +11813,7 @@
         <v>0.45020327181591202</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31" ht="23.25" thickBot="1">
       <c r="A148" s="41" t="s">
         <v>111</v>
       </c>
@@ -11906,7 +11896,7 @@
         <v>9.3256645451888076</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:31" ht="15.75" thickBot="1">
       <c r="A149" s="35" t="s">
         <v>109</v>
       </c>
@@ -11989,7 +11979,7 @@
         <v>14.05024106040643</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:31" ht="15.75" thickBot="1">
       <c r="A150" s="41" t="s">
         <v>109</v>
       </c>
@@ -12070,7 +12060,7 @@
         <v>18.816343783707534</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:31" ht="15.75" thickBot="1">
       <c r="A151" s="35" t="s">
         <v>109</v>
       </c>
@@ -12151,7 +12141,7 @@
         <v>23.62424725475854</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31" ht="15.75" thickBot="1">
       <c r="A152" s="41" t="s">
         <v>109</v>
       </c>
@@ -12232,7 +12222,7 @@
         <v>28.474227627777672</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:31" ht="15.75" thickBot="1">
       <c r="A153" s="35" t="s">
         <v>109</v>
       </c>
@@ -12313,7 +12303,7 @@
         <v>33.366562680439209</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:31" ht="15.75" thickBot="1">
       <c r="A154" s="41" t="s">
         <v>109</v>
       </c>
@@ -12396,7 +12386,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31" ht="15.75" thickBot="1">
       <c r="A155" s="35" t="s">
         <v>110</v>
       </c>
@@ -12479,7 +12469,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31" ht="15.75" thickBot="1">
       <c r="A156" s="41" t="s">
         <v>110</v>
       </c>
@@ -12560,7 +12550,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31" ht="15.75" thickBot="1">
       <c r="A157" s="35" t="s">
         <v>110</v>
       </c>
@@ -12641,7 +12631,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31" ht="15.75" thickBot="1">
       <c r="A158" s="41" t="s">
         <v>110</v>
       </c>
@@ -12722,7 +12712,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="159" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:31" ht="15.75" thickBot="1">
       <c r="A159" s="35" t="s">
         <v>110</v>
       </c>
@@ -12803,7 +12793,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:31" ht="15.75" thickBot="1">
       <c r="A160" s="41" t="s">
         <v>110</v>
       </c>
@@ -12854,7 +12844,7 @@
       <c r="Z160" s="12"/>
       <c r="AA160" s="12"/>
     </row>
-    <row r="161" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" ht="15.75" thickBot="1">
       <c r="A161" s="35" t="s">
         <v>46</v>
       </c>
@@ -12905,7 +12895,7 @@
       <c r="Z161" s="12"/>
       <c r="AA161" s="12"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" ht="15.75" thickBot="1">
       <c r="A162" s="41" t="s">
         <v>46</v>
       </c>
@@ -12956,7 +12946,7 @@
       <c r="Z162" s="12"/>
       <c r="AA162" s="12"/>
     </row>
-    <row r="163" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" ht="15.75" thickBot="1">
       <c r="A163" s="35" t="s">
         <v>46</v>
       </c>
@@ -13007,7 +12997,7 @@
       <c r="Z163" s="12"/>
       <c r="AA163" s="12"/>
     </row>
-    <row r="164" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" ht="15.75" thickBot="1">
       <c r="A164" s="41" t="s">
         <v>46</v>
       </c>
@@ -13058,7 +13048,7 @@
       <c r="Z164" s="12"/>
       <c r="AA164" s="12"/>
     </row>
-    <row r="165" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" ht="15.75" thickBot="1">
       <c r="A165" s="35" t="s">
         <v>46</v>
       </c>
@@ -13109,7 +13099,7 @@
       <c r="Z165" s="12"/>
       <c r="AA165" s="12"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" ht="15.75" thickBot="1">
       <c r="A166" s="41" t="s">
         <v>46</v>
       </c>
@@ -13160,7 +13150,7 @@
       <c r="Z166" s="12"/>
       <c r="AA166" s="12"/>
     </row>
-    <row r="167" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" ht="15.75" thickBot="1">
       <c r="A167" s="35" t="s">
         <v>111</v>
       </c>
@@ -13211,7 +13201,7 @@
       <c r="Z167" s="12"/>
       <c r="AA167" s="12"/>
     </row>
-    <row r="168" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" ht="15.75" thickBot="1">
       <c r="A168" s="41" t="s">
         <v>111</v>
       </c>
@@ -13262,7 +13252,7 @@
       <c r="Z168" s="12"/>
       <c r="AA168" s="12"/>
     </row>
-    <row r="169" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" ht="15.75" thickBot="1">
       <c r="A169" s="35" t="s">
         <v>111</v>
       </c>
@@ -13313,7 +13303,7 @@
       <c r="Z169" s="12"/>
       <c r="AA169" s="12"/>
     </row>
-    <row r="170" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" ht="15.75" thickBot="1">
       <c r="A170" s="41" t="s">
         <v>111</v>
       </c>
@@ -13364,7 +13354,7 @@
       <c r="Z170" s="12"/>
       <c r="AA170" s="12"/>
     </row>
-    <row r="171" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" ht="15.75" thickBot="1">
       <c r="A171" s="35" t="s">
         <v>111</v>
       </c>
@@ -13415,7 +13405,7 @@
       <c r="Z171" s="12"/>
       <c r="AA171" s="12"/>
     </row>
-    <row r="172" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" ht="15.75" thickBot="1">
       <c r="A172" s="41" t="s">
         <v>111</v>
       </c>
@@ -13466,7 +13456,7 @@
       <c r="Z172" s="12"/>
       <c r="AA172" s="12"/>
     </row>
-    <row r="173" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" ht="15.75" thickBot="1">
       <c r="A173" s="68" t="s">
         <v>109</v>
       </c>
@@ -13508,7 +13498,7 @@
       <c r="Z173" s="12"/>
       <c r="AA173" s="12"/>
     </row>
-    <row r="174" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" ht="15.75" thickBot="1">
       <c r="A174" s="68" t="s">
         <v>110</v>
       </c>
@@ -13550,7 +13540,7 @@
       <c r="Z174" s="12"/>
       <c r="AA174" s="12"/>
     </row>
-    <row r="175" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="15.75" thickBot="1">
       <c r="A175" s="68" t="s">
         <v>46</v>
       </c>
@@ -13592,7 +13582,7 @@
       <c r="Z175" s="12"/>
       <c r="AA175" s="12"/>
     </row>
-    <row r="176" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" ht="15.75" thickBot="1">
       <c r="A176" s="68" t="s">
         <v>111</v>
       </c>
@@ -13634,7 +13624,7 @@
       <c r="Z176" s="12"/>
       <c r="AA176" s="12"/>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -13663,7 +13653,7 @@
       <c r="Z177" s="12"/>
       <c r="AA177" s="12"/>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -13692,7 +13682,7 @@
       <c r="Z178" s="12"/>
       <c r="AA178" s="12"/>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27">
       <c r="A179" s="18" t="s">
         <v>137</v>
       </c>
@@ -13723,7 +13713,7 @@
       <c r="Z179" s="12"/>
       <c r="AA179" s="12"/>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27">
       <c r="A180" s="12" t="s">
         <v>138</v>
       </c>
@@ -13786,7 +13776,7 @@
       <c r="Z180" s="12"/>
       <c r="AA180" s="12"/>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27">
       <c r="A181" s="12" t="s">
         <v>139</v>
       </c>
@@ -13865,7 +13855,7 @@
       <c r="Z181" s="12"/>
       <c r="AA181" s="12"/>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27">
       <c r="A182" s="12" t="s">
         <v>135</v>
       </c>
@@ -13944,7 +13934,7 @@
       <c r="Z182" s="12"/>
       <c r="AA182" s="12"/>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="17"/>
@@ -14008,7 +13998,7 @@
       <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -14016,12 +14006,12 @@
     <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2">
         <v>2021</v>
       </c>
@@ -14113,7 +14103,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="74" t="s">
         <v>217</v>
       </c>
@@ -14238,7 +14228,7 @@
         <v>130641797616</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14363,7 +14353,7 @@
         <v>123324758518</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14488,7 +14478,7 @@
         <v>22481978241</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14613,7 +14603,7 @@
         <v>34590984593</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14738,7 +14728,7 @@
         <v>27570635908</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14863,7 +14853,7 @@
         <v>19474802616</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14988,12 +14978,12 @@
         <v>185700776885</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="B12">
         <v>2021</v>
       </c>
@@ -15085,7 +15075,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>218</v>
       </c>
@@ -15210,7 +15200,7 @@
         <v>0.58604270197066977</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="74" t="s">
         <v>219</v>
       </c>
@@ -15335,7 +15325,7 @@
         <v>9.4917741494206828E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="74" t="s">
         <v>220</v>
       </c>
@@ -15460,23 +15450,23 @@
         <v>0.90508225850579316</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="95" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="95" customFormat="1" ht="15.75">
       <c r="A17" s="94" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="H19" s="96"/>
       <c r="M19" s="96"/>
       <c r="P19" s="96"/>
       <c r="W19" s="96"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="H20" s="97" t="s">
         <v>223</v>
       </c>
@@ -15500,7 +15490,7 @@
       <c r="V20" s="99"/>
       <c r="W20" s="96"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="B21" t="s">
         <v>226</v>
       </c>
@@ -15574,7 +15564,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="B22">
         <v>2012</v>
       </c>
@@ -15661,7 +15651,7 @@
         <v>269204.92893499997</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="B23">
         <v>2012</v>
       </c>
@@ -15748,7 +15738,7 @@
         <v>275014.26959799998</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="B24">
         <v>2012</v>
       </c>
@@ -15835,7 +15825,7 @@
         <v>279128.70267299999</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="B25">
         <v>2012</v>
       </c>
@@ -15922,7 +15912,7 @@
         <v>279838.554198</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="B26">
         <v>2012</v>
       </c>
@@ -16009,7 +15999,7 @@
         <v>287889.96027500002</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="B27">
         <v>2012</v>
       </c>
@@ -16096,7 +16086,7 @@
         <v>297585.30382600002</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="B28">
         <v>2012</v>
       </c>
@@ -16183,7 +16173,7 @@
         <v>304857.04434000002</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="B29">
         <v>2012</v>
       </c>
@@ -16270,7 +16260,7 @@
         <v>300044.746866</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="B30">
         <v>2012</v>
       </c>
@@ -16357,7 +16347,7 @@
         <v>302135.239413</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="B31">
         <v>2013</v>
       </c>
@@ -16445,7 +16435,7 @@
         <v>315286.512973</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="B32">
         <v>2013</v>
       </c>
@@ -16533,7 +16523,7 @@
         <v>321947.05459299998</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30">
       <c r="B33">
         <v>2013</v>
       </c>
@@ -16621,7 +16611,7 @@
         <v>320699.79185600003</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:30">
       <c r="B34">
         <v>2013</v>
       </c>
@@ -16709,7 +16699,7 @@
         <v>321099.69637999998</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:30">
       <c r="B35">
         <v>2013</v>
       </c>
@@ -16797,7 +16787,7 @@
         <v>324016.78480200004</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:30">
       <c r="B36">
         <v>2013</v>
       </c>
@@ -16885,7 +16875,7 @@
         <v>328476.361515</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:30">
       <c r="B37">
         <v>2013</v>
       </c>
@@ -16973,7 +16963,7 @@
         <v>332291.28607899998</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:30">
       <c r="B38">
         <v>2013</v>
       </c>
@@ -17061,7 +17051,7 @@
         <v>335752.19136</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:30">
       <c r="B39">
         <v>2013</v>
       </c>
@@ -17149,7 +17139,7 @@
         <v>338568.93268099998</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:30">
       <c r="B40">
         <v>2014</v>
       </c>
@@ -17237,7 +17227,7 @@
         <v>341094.03420599998</v>
       </c>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:30">
       <c r="B41">
         <v>2014</v>
       </c>
@@ -17325,7 +17315,7 @@
         <v>344130.233381</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:30">
       <c r="B42">
         <v>2014</v>
       </c>
@@ -17413,7 +17403,7 @@
         <v>348243.08857100003</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:30">
       <c r="B43">
         <v>2014</v>
       </c>
@@ -17501,7 +17491,7 @@
         <v>351625.99503300001</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:30">
       <c r="B44">
         <v>2014</v>
       </c>
@@ -17589,7 +17579,7 @@
         <v>354872.73295999999</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:30">
       <c r="B45">
         <v>2014</v>
       </c>
@@ -17677,7 +17667,7 @@
         <v>358367.67353300005</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:30">
       <c r="B46">
         <v>2014</v>
       </c>
@@ -17765,7 +17755,7 @@
         <v>361320.58264000004</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30">
       <c r="B47">
         <v>2014</v>
       </c>
@@ -17853,7 +17843,7 @@
         <v>364871.36687600001</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:30">
       <c r="B48">
         <v>2014</v>
       </c>
@@ -17941,7 +17931,7 @@
         <v>368410.84730599995</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:30">
       <c r="B49">
         <v>2015</v>
       </c>
@@ -18029,7 +18019,7 @@
         <v>371886.64559299999</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:30">
       <c r="B50">
         <v>2015</v>
       </c>
@@ -18117,7 +18107,7 @@
         <v>375662.94042900001</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:30">
       <c r="B51">
         <v>2015</v>
       </c>
@@ -18205,7 +18195,7 @@
         <v>379485.037556</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:30">
       <c r="B52">
         <v>2015</v>
       </c>
@@ -18293,7 +18283,7 @@
         <v>383492.49935100001</v>
       </c>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:30">
       <c r="B53">
         <v>2015</v>
       </c>
@@ -18381,7 +18371,7 @@
         <v>387363.04502800002</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:30">
       <c r="B54">
         <v>2015</v>
       </c>
@@ -18469,7 +18459,7 @@
         <v>390923.53863600001</v>
       </c>
     </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:30">
       <c r="B55">
         <v>2015</v>
       </c>
@@ -18557,7 +18547,7 @@
         <v>394061.25975500001</v>
       </c>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:30">
       <c r="B56">
         <v>2015</v>
       </c>
@@ -18645,7 +18635,7 @@
         <v>397535.01028799999</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:30">
       <c r="B57">
         <v>2015</v>
       </c>
@@ -18733,7 +18723,7 @@
         <v>401206.37462900003</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:30">
       <c r="B58">
         <v>2016</v>
       </c>
@@ -18821,7 +18811,7 @@
         <v>404637.34415300004</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:30">
       <c r="B59">
         <v>2016</v>
       </c>
@@ -18909,7 +18899,7 @@
         <v>408336.174405</v>
       </c>
     </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:30">
       <c r="B60">
         <v>2016</v>
       </c>
@@ -18997,7 +18987,7 @@
         <v>413143.93676100002</v>
       </c>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:30">
       <c r="B61">
         <v>2016</v>
       </c>
@@ -19066,7 +19056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:30">
       <c r="B62">
         <v>2016</v>
       </c>
@@ -19135,7 +19125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:30">
       <c r="B63">
         <v>2016</v>
       </c>
@@ -19204,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:30">
       <c r="B64">
         <v>2016</v>
       </c>
@@ -19273,7 +19263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23">
       <c r="B65">
         <v>2016</v>
       </c>
@@ -19342,7 +19332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23">
       <c r="B66">
         <v>2016</v>
       </c>
@@ -19411,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23">
       <c r="B67">
         <v>2017</v>
       </c>
@@ -19480,7 +19470,7 @@
         <v>6775192</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23">
       <c r="B68">
         <v>2017</v>
       </c>
@@ -19549,7 +19539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23">
       <c r="B69">
         <v>2017</v>
       </c>
@@ -19618,7 +19608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23">
       <c r="B70">
         <v>2017</v>
       </c>
@@ -19687,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23">
       <c r="B71">
         <v>2017</v>
       </c>
@@ -19756,7 +19746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23">
       <c r="B72">
         <v>2017</v>
       </c>
@@ -19825,7 +19815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23">
       <c r="B73">
         <v>2017</v>
       </c>
@@ -19894,7 +19884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:23">
       <c r="B74">
         <v>2017</v>
       </c>
@@ -19963,7 +19953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:23">
       <c r="B75">
         <v>2017</v>
       </c>
@@ -20032,7 +20022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:23">
       <c r="B76">
         <v>2018</v>
       </c>
@@ -20101,7 +20091,7 @@
         <v>6854305</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:23">
       <c r="B77">
         <v>2018</v>
       </c>
@@ -20170,7 +20160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23">
       <c r="B78">
         <v>2018</v>
       </c>
@@ -20236,7 +20226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:23">
       <c r="B79">
         <v>2018</v>
       </c>
@@ -20305,7 +20295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23">
       <c r="B80">
         <v>2018</v>
       </c>
@@ -20374,7 +20364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:23">
       <c r="B81">
         <v>2018</v>
       </c>
@@ -20443,7 +20433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:23">
       <c r="B82">
         <v>2018</v>
       </c>
@@ -20512,7 +20502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23">
       <c r="B83">
         <v>2018</v>
       </c>
@@ -20581,7 +20571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:23">
       <c r="B84">
         <v>2018</v>
       </c>
@@ -20650,7 +20640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23">
       <c r="B85">
         <v>2019</v>
       </c>
@@ -20719,7 +20709,7 @@
         <v>6500376</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:23">
       <c r="B86">
         <v>2019</v>
       </c>
@@ -20788,7 +20778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:23">
       <c r="B87">
         <v>2019</v>
       </c>
@@ -20857,7 +20847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:23">
       <c r="B88">
         <v>2019</v>
       </c>
@@ -20926,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:23">
       <c r="B89">
         <v>2019</v>
       </c>
@@ -20995,7 +20985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:23">
       <c r="B90">
         <v>2019</v>
       </c>
@@ -21064,7 +21054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:23">
       <c r="B91">
         <v>2019</v>
       </c>
@@ -21133,7 +21123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:23">
       <c r="B92">
         <v>2019</v>
       </c>
@@ -21202,7 +21192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:23">
       <c r="B93">
         <v>2019</v>
       </c>
@@ -21271,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23">
       <c r="B94">
         <v>2020</v>
       </c>
@@ -21340,7 +21330,7 @@
         <v>5911418</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:23">
       <c r="B95">
         <v>2020</v>
       </c>
@@ -21409,7 +21399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:23">
       <c r="B96">
         <v>2020</v>
       </c>
@@ -21478,7 +21468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:23">
       <c r="B97">
         <v>2020</v>
       </c>
@@ -21547,7 +21537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:23">
       <c r="B98">
         <v>2020</v>
       </c>
@@ -21616,7 +21606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:23">
       <c r="B99">
         <v>2020</v>
       </c>
@@ -21685,7 +21675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:23">
       <c r="B100">
         <v>2020</v>
       </c>
@@ -21754,7 +21744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:23">
       <c r="B101">
         <v>2020</v>
       </c>
@@ -21823,7 +21813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:23">
       <c r="B102">
         <v>2020</v>
       </c>
@@ -21892,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:23">
       <c r="B103">
         <v>2021</v>
       </c>
@@ -21961,7 +21951,7 @@
         <v>7145296</v>
       </c>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:23">
       <c r="B104">
         <v>2021</v>
       </c>
@@ -22030,7 +22020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:23">
       <c r="B105">
         <v>2021</v>
       </c>
@@ -22099,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:23">
       <c r="B106">
         <v>2021</v>
       </c>
@@ -22168,7 +22158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23">
       <c r="B107">
         <v>2021</v>
       </c>
@@ -22237,7 +22227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23">
       <c r="B108">
         <v>2021</v>
       </c>
@@ -22306,7 +22296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:23">
       <c r="B109">
         <v>2021</v>
       </c>
@@ -22375,7 +22365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23">
       <c r="B110">
         <v>2021</v>
       </c>
@@ -22444,7 +22434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:23">
       <c r="B111">
         <v>2021</v>
       </c>
@@ -22513,7 +22503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:23">
       <c r="B112">
         <v>2022</v>
       </c>
@@ -22582,7 +22572,7 @@
         <v>7899190</v>
       </c>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:23">
       <c r="B113">
         <v>2022</v>
       </c>
@@ -22651,7 +22641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:23">
       <c r="B114">
         <v>2022</v>
       </c>
@@ -22720,7 +22710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:23">
       <c r="B115">
         <v>2022</v>
       </c>
@@ -22789,7 +22779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:23">
       <c r="B116">
         <v>2022</v>
       </c>
@@ -22858,7 +22848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:23">
       <c r="B117">
         <v>2022</v>
       </c>
@@ -22927,7 +22917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:23">
       <c r="B118">
         <v>2022</v>
       </c>
@@ -22996,7 +22986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23">
       <c r="B119">
         <v>2022</v>
       </c>
@@ -23065,7 +23055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23">
       <c r="B120">
         <v>2022</v>
       </c>
@@ -23134,7 +23124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:23">
       <c r="B121">
         <v>2023</v>
       </c>
@@ -23203,7 +23193,7 @@
         <v>8510344</v>
       </c>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:23">
       <c r="B122">
         <v>2023</v>
       </c>
@@ -23272,7 +23262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:23">
       <c r="B123">
         <v>2023</v>
       </c>
@@ -23341,7 +23331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:23">
       <c r="B124">
         <v>2023</v>
       </c>
@@ -23410,7 +23400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:23">
       <c r="B125">
         <v>2023</v>
       </c>
@@ -23479,7 +23469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:23">
       <c r="B126">
         <v>2023</v>
       </c>
@@ -23548,7 +23538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:23">
       <c r="B127">
         <v>2023</v>
       </c>
@@ -23617,7 +23607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23">
       <c r="B128">
         <v>2023</v>
       </c>
@@ -23686,7 +23676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:23">
       <c r="B129">
         <v>2023</v>
       </c>
@@ -23755,7 +23745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:23">
       <c r="B130">
         <v>2024</v>
       </c>
@@ -23824,7 +23814,7 @@
         <v>9126118</v>
       </c>
     </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:23">
       <c r="B131">
         <v>2024</v>
       </c>
@@ -23893,7 +23883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:23">
       <c r="B132">
         <v>2024</v>
       </c>
@@ -23962,7 +23952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:23">
       <c r="B133">
         <v>2024</v>
       </c>
@@ -24031,7 +24021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:23">
       <c r="B134">
         <v>2024</v>
       </c>
@@ -24100,7 +24090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:23">
       <c r="B135">
         <v>2024</v>
       </c>
@@ -24169,7 +24159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:23">
       <c r="B136">
         <v>2024</v>
       </c>
@@ -24238,7 +24228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:23">
       <c r="B137">
         <v>2024</v>
       </c>
@@ -24307,7 +24297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:23">
       <c r="B138">
         <v>2024</v>
       </c>
@@ -24376,7 +24366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:23">
       <c r="B139">
         <v>2025</v>
       </c>
@@ -24445,7 +24435,7 @@
         <v>9739533</v>
       </c>
     </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:23">
       <c r="B140">
         <v>2025</v>
       </c>
@@ -24514,7 +24504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:23">
       <c r="B141">
         <v>2025</v>
       </c>
@@ -24583,7 +24573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:23">
       <c r="B142">
         <v>2025</v>
       </c>
@@ -24652,7 +24642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:23">
       <c r="B143">
         <v>2025</v>
       </c>
@@ -24721,7 +24711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:23">
       <c r="B144">
         <v>2025</v>
       </c>
@@ -24790,7 +24780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:23">
       <c r="B145">
         <v>2025</v>
       </c>
@@ -24859,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:23">
       <c r="B146">
         <v>2025</v>
       </c>
@@ -24928,7 +24918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:23">
       <c r="B147">
         <v>2025</v>
       </c>
@@ -24997,7 +24987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:23">
       <c r="B148">
         <v>2026</v>
       </c>
@@ -25066,7 +25056,7 @@
         <v>10316053</v>
       </c>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:23">
       <c r="B149">
         <v>2026</v>
       </c>
@@ -25135,7 +25125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:23">
       <c r="B150">
         <v>2026</v>
       </c>
@@ -25204,7 +25194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:23">
       <c r="B151">
         <v>2026</v>
       </c>
@@ -25273,7 +25263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:23">
       <c r="B152">
         <v>2026</v>
       </c>
@@ -25342,7 +25332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:23">
       <c r="B153">
         <v>2026</v>
       </c>
@@ -25411,7 +25401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:23">
       <c r="B154">
         <v>2026</v>
       </c>
@@ -25480,7 +25470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:23">
       <c r="B155">
         <v>2026</v>
       </c>
@@ -25549,7 +25539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:23">
       <c r="B156">
         <v>2026</v>
       </c>
@@ -25618,7 +25608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:23">
       <c r="B157">
         <v>2027</v>
       </c>
@@ -25687,7 +25677,7 @@
         <v>10792452</v>
       </c>
     </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:23">
       <c r="B158">
         <v>2027</v>
       </c>
@@ -25756,7 +25746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:23">
       <c r="B159">
         <v>2027</v>
       </c>
@@ -25825,7 +25815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:23">
       <c r="B160">
         <v>2027</v>
       </c>
@@ -25894,7 +25884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:23">
       <c r="B161">
         <v>2027</v>
       </c>
@@ -25963,7 +25953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:23">
       <c r="B162">
         <v>2027</v>
       </c>
@@ -26032,7 +26022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:23">
       <c r="B163">
         <v>2027</v>
       </c>
@@ -26101,7 +26091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:23">
       <c r="B164">
         <v>2027</v>
       </c>
@@ -26170,7 +26160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:23">
       <c r="B165">
         <v>2027</v>
       </c>
@@ -26239,7 +26229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:23">
       <c r="B166">
         <v>2028</v>
       </c>
@@ -26308,7 +26298,7 @@
         <v>11176272</v>
       </c>
     </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:23">
       <c r="B167">
         <v>2028</v>
       </c>
@@ -26377,7 +26367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:23">
       <c r="B168">
         <v>2028</v>
       </c>
@@ -26446,7 +26436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:23">
       <c r="B169">
         <v>2028</v>
       </c>
@@ -26515,7 +26505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:23">
       <c r="B170">
         <v>2028</v>
       </c>
@@ -26584,7 +26574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:23">
       <c r="B171">
         <v>2028</v>
       </c>
@@ -26653,7 +26643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:23">
       <c r="B172">
         <v>2028</v>
       </c>
@@ -26722,7 +26712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:23">
       <c r="B173">
         <v>2028</v>
       </c>
@@ -26791,7 +26781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:23">
       <c r="B174">
         <v>2028</v>
       </c>
@@ -26860,7 +26850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:23">
       <c r="B175">
         <v>2029</v>
       </c>
@@ -26929,7 +26919,7 @@
         <v>11474709</v>
       </c>
     </row>
-    <row r="176" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:23">
       <c r="B176">
         <v>2029</v>
       </c>
@@ -26998,7 +26988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:23">
       <c r="B177">
         <v>2029</v>
       </c>
@@ -27067,7 +27057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:23">
       <c r="B178">
         <v>2029</v>
       </c>
@@ -27136,7 +27126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:23">
       <c r="B179">
         <v>2029</v>
       </c>
@@ -27205,7 +27195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:23">
       <c r="B180">
         <v>2029</v>
       </c>
@@ -27274,7 +27264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:23">
       <c r="B181">
         <v>2029</v>
       </c>
@@ -27343,7 +27333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:23">
       <c r="B182">
         <v>2029</v>
       </c>
@@ -27412,7 +27402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:23">
       <c r="B183">
         <v>2029</v>
       </c>
@@ -27481,7 +27471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:23">
       <c r="B184">
         <v>2030</v>
       </c>
@@ -27550,7 +27540,7 @@
         <v>11718101</v>
       </c>
     </row>
-    <row r="185" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:23">
       <c r="B185">
         <v>2030</v>
       </c>
@@ -27619,7 +27609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:23">
       <c r="B186">
         <v>2030</v>
       </c>
@@ -27688,7 +27678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:23">
       <c r="B187">
         <v>2030</v>
       </c>
@@ -27757,7 +27747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:23">
       <c r="B188">
         <v>2030</v>
       </c>
@@ -27826,7 +27816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:23">
       <c r="B189">
         <v>2030</v>
       </c>
@@ -27895,7 +27885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:23">
       <c r="B190">
         <v>2030</v>
       </c>
@@ -27964,7 +27954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:23">
       <c r="B191">
         <v>2030</v>
       </c>
@@ -28033,7 +28023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:23">
       <c r="B192">
         <v>2030</v>
       </c>
@@ -28102,7 +28092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:23">
       <c r="B193">
         <v>2031</v>
       </c>
@@ -28171,7 +28161,7 @@
         <v>11950609</v>
       </c>
     </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:23">
       <c r="B194">
         <v>2031</v>
       </c>
@@ -28240,7 +28230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:23">
       <c r="B195">
         <v>2031</v>
       </c>
@@ -28309,7 +28299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:23">
       <c r="B196">
         <v>2031</v>
       </c>
@@ -28378,7 +28368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:23">
       <c r="B197">
         <v>2031</v>
       </c>
@@ -28447,7 +28437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:23">
       <c r="B198">
         <v>2031</v>
       </c>
@@ -28516,7 +28506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:23">
       <c r="B199">
         <v>2031</v>
       </c>
@@ -28585,7 +28575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:23">
       <c r="B200">
         <v>2031</v>
       </c>
@@ -28654,7 +28644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:23">
       <c r="B201">
         <v>2031</v>
       </c>
@@ -28723,7 +28713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:23">
       <c r="B202">
         <v>2032</v>
       </c>
@@ -28792,7 +28782,7 @@
         <v>12202189</v>
       </c>
     </row>
-    <row r="203" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:23">
       <c r="B203">
         <v>2032</v>
       </c>
@@ -28861,7 +28851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:23">
       <c r="B204">
         <v>2032</v>
       </c>
@@ -28930,7 +28920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:23">
       <c r="B205">
         <v>2032</v>
       </c>
@@ -28999,7 +28989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:23">
       <c r="B206">
         <v>2032</v>
       </c>
@@ -29068,7 +29058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:23">
       <c r="B207">
         <v>2032</v>
       </c>
@@ -29137,7 +29127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:23">
       <c r="B208">
         <v>2032</v>
       </c>
@@ -29206,7 +29196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:23">
       <c r="B209">
         <v>2032</v>
       </c>
@@ -29275,7 +29265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:23">
       <c r="B210">
         <v>2032</v>
       </c>
@@ -29344,7 +29334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:23">
       <c r="B211">
         <v>2033</v>
       </c>
@@ -29413,7 +29403,7 @@
         <v>12426002</v>
       </c>
     </row>
-    <row r="212" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:23">
       <c r="B212">
         <v>2033</v>
       </c>
@@ -29482,7 +29472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:23">
       <c r="B213">
         <v>2033</v>
       </c>
@@ -29551,7 +29541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:23">
       <c r="B214">
         <v>2033</v>
       </c>
@@ -29620,7 +29610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:23">
       <c r="B215">
         <v>2033</v>
       </c>
@@ -29689,7 +29679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:23">
       <c r="B216">
         <v>2033</v>
       </c>
@@ -29758,7 +29748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:23">
       <c r="B217">
         <v>2033</v>
       </c>
@@ -29827,7 +29817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:23">
       <c r="B218">
         <v>2033</v>
       </c>
@@ -29896,7 +29886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:23">
       <c r="B219">
         <v>2033</v>
       </c>
@@ -29965,7 +29955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:23">
       <c r="B220">
         <v>2034</v>
       </c>
@@ -30034,7 +30024,7 @@
         <v>12642420</v>
       </c>
     </row>
-    <row r="221" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:23">
       <c r="B221">
         <v>2034</v>
       </c>
@@ -30103,7 +30093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:23">
       <c r="B222">
         <v>2034</v>
       </c>
@@ -30172,7 +30162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:23">
       <c r="B223">
         <v>2034</v>
       </c>
@@ -30241,7 +30231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:23">
       <c r="B224">
         <v>2034</v>
       </c>
@@ -30310,7 +30300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:23">
       <c r="B225">
         <v>2034</v>
       </c>
@@ -30379,7 +30369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:23">
       <c r="B226">
         <v>2034</v>
       </c>
@@ -30448,7 +30438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:23">
       <c r="B227">
         <v>2034</v>
       </c>
@@ -30517,7 +30507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:23">
       <c r="B228">
         <v>2034</v>
       </c>
@@ -30586,7 +30576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:23">
       <c r="B229">
         <v>2035</v>
       </c>
@@ -30655,7 +30645,7 @@
         <v>12841677</v>
       </c>
     </row>
-    <row r="230" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:23">
       <c r="B230">
         <v>2035</v>
       </c>
@@ -30724,7 +30714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:23">
       <c r="B231">
         <v>2035</v>
       </c>
@@ -30793,7 +30783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:23">
       <c r="B232">
         <v>2035</v>
       </c>
@@ -30862,7 +30852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:23">
       <c r="B233">
         <v>2035</v>
       </c>
@@ -30931,7 +30921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:23">
       <c r="B234">
         <v>2035</v>
       </c>
@@ -31000,7 +30990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:23">
       <c r="B235">
         <v>2035</v>
       </c>
@@ -31069,7 +31059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:23">
       <c r="B236">
         <v>2035</v>
       </c>
@@ -31138,7 +31128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:23">
       <c r="B237">
         <v>2035</v>
       </c>
@@ -31207,7 +31197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:23">
       <c r="B238">
         <v>2036</v>
       </c>
@@ -31276,7 +31266,7 @@
         <v>12991660</v>
       </c>
     </row>
-    <row r="239" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:23">
       <c r="B239">
         <v>2036</v>
       </c>
@@ -31345,7 +31335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:23">
       <c r="B240">
         <v>2036</v>
       </c>
@@ -31414,7 +31404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:23">
       <c r="B241">
         <v>2036</v>
       </c>
@@ -31483,7 +31473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:23">
       <c r="B242">
         <v>2036</v>
       </c>
@@ -31552,7 +31542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:23">
       <c r="B243">
         <v>2036</v>
       </c>
@@ -31621,7 +31611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:23">
       <c r="B244">
         <v>2036</v>
       </c>
@@ -31690,7 +31680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:23">
       <c r="B245">
         <v>2036</v>
       </c>
@@ -31759,7 +31749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:23">
       <c r="B246">
         <v>2036</v>
       </c>
@@ -31828,7 +31818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:23">
       <c r="B247">
         <v>2037</v>
       </c>
@@ -31897,7 +31887,7 @@
         <v>13129167</v>
       </c>
     </row>
-    <row r="248" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:23">
       <c r="B248">
         <v>2037</v>
       </c>
@@ -31966,7 +31956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:23">
       <c r="B249">
         <v>2037</v>
       </c>
@@ -32035,7 +32025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:23">
       <c r="B250">
         <v>2037</v>
       </c>
@@ -32104,7 +32094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:23">
       <c r="B251">
         <v>2037</v>
       </c>
@@ -32173,7 +32163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:23">
       <c r="B252">
         <v>2037</v>
       </c>
@@ -32242,7 +32232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:23">
       <c r="B253">
         <v>2037</v>
       </c>
@@ -32311,7 +32301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:23">
       <c r="B254">
         <v>2037</v>
       </c>
@@ -32380,7 +32370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:23">
       <c r="B255">
         <v>2037</v>
       </c>
@@ -32449,7 +32439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:23">
       <c r="B256">
         <v>2038</v>
       </c>
@@ -32518,7 +32508,7 @@
         <v>13234496</v>
       </c>
     </row>
-    <row r="257" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:23">
       <c r="B257">
         <v>2038</v>
       </c>
@@ -32587,7 +32577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:23">
       <c r="B258">
         <v>2038</v>
       </c>
@@ -32656,7 +32646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:23">
       <c r="B259">
         <v>2038</v>
       </c>
@@ -32725,7 +32715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:23">
       <c r="B260">
         <v>2038</v>
       </c>
@@ -32794,7 +32784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:23">
       <c r="B261">
         <v>2038</v>
       </c>
@@ -32863,7 +32853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:23">
       <c r="B262">
         <v>2038</v>
       </c>
@@ -32932,7 +32922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:23">
       <c r="B263">
         <v>2038</v>
       </c>
@@ -33001,7 +32991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:23">
       <c r="B264">
         <v>2038</v>
       </c>
@@ -33070,7 +33060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:23">
       <c r="B265">
         <v>2039</v>
       </c>
@@ -33139,7 +33129,7 @@
         <v>13310591</v>
       </c>
     </row>
-    <row r="266" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:23">
       <c r="B266">
         <v>2039</v>
       </c>
@@ -33208,7 +33198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:23">
       <c r="B267">
         <v>2039</v>
       </c>
@@ -33277,7 +33267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:23">
       <c r="B268">
         <v>2039</v>
       </c>
@@ -33346,7 +33336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:23">
       <c r="B269">
         <v>2039</v>
       </c>
@@ -33415,7 +33405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:23">
       <c r="B270">
         <v>2039</v>
       </c>
@@ -33484,7 +33474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:23">
       <c r="B271">
         <v>2039</v>
       </c>
@@ -33553,7 +33543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:23">
       <c r="B272">
         <v>2039</v>
       </c>
@@ -33622,7 +33612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:23">
       <c r="B273">
         <v>2039</v>
       </c>
@@ -33691,7 +33681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:23">
       <c r="B274">
         <v>2040</v>
       </c>
@@ -33760,7 +33750,7 @@
         <v>13386520</v>
       </c>
     </row>
-    <row r="275" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:23">
       <c r="B275">
         <v>2040</v>
       </c>
@@ -33829,7 +33819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:23">
       <c r="B276">
         <v>2040</v>
       </c>
@@ -33898,7 +33888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:23">
       <c r="B277">
         <v>2040</v>
       </c>
@@ -33967,7 +33957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:23">
       <c r="B278">
         <v>2040</v>
       </c>
@@ -34036,7 +34026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:23">
       <c r="B279">
         <v>2040</v>
       </c>
@@ -34105,7 +34095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:23">
       <c r="B280">
         <v>2040</v>
       </c>
@@ -34174,7 +34164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:23">
       <c r="B281">
         <v>2040</v>
       </c>
@@ -34243,7 +34233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:23">
       <c r="B282">
         <v>2040</v>
       </c>
@@ -34312,7 +34302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:23">
       <c r="B283">
         <v>2041</v>
       </c>
@@ -34381,7 +34371,7 @@
         <v>13460125</v>
       </c>
     </row>
-    <row r="284" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:23">
       <c r="B284">
         <v>2041</v>
       </c>
@@ -34450,7 +34440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:23">
       <c r="B285">
         <v>2041</v>
       </c>
@@ -34519,7 +34509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:23">
       <c r="B286">
         <v>2041</v>
       </c>
@@ -34588,7 +34578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:23">
       <c r="B287">
         <v>2041</v>
       </c>
@@ -34657,7 +34647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:23">
       <c r="B288">
         <v>2041</v>
       </c>
@@ -34726,7 +34716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:23">
       <c r="B289">
         <v>2041</v>
       </c>
@@ -34795,7 +34785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:23">
       <c r="B290">
         <v>2041</v>
       </c>
@@ -34864,7 +34854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:23">
       <c r="B291">
         <v>2041</v>
       </c>
@@ -34933,7 +34923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:23">
       <c r="B292">
         <v>2042</v>
       </c>
@@ -35002,7 +34992,7 @@
         <v>13537213</v>
       </c>
     </row>
-    <row r="293" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:23">
       <c r="B293">
         <v>2042</v>
       </c>
@@ -35071,7 +35061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:23">
       <c r="B294">
         <v>2042</v>
       </c>
@@ -35140,7 +35130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:23">
       <c r="B295">
         <v>2042</v>
       </c>
@@ -35209,7 +35199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:23">
       <c r="B296">
         <v>2042</v>
       </c>
@@ -35278,7 +35268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:23">
       <c r="B297">
         <v>2042</v>
       </c>
@@ -35347,7 +35337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:23">
       <c r="B298">
         <v>2042</v>
       </c>
@@ -35416,7 +35406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:23">
       <c r="B299">
         <v>2042</v>
       </c>
@@ -35485,7 +35475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:23">
       <c r="B300">
         <v>2042</v>
       </c>
@@ -35554,7 +35544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:23">
       <c r="B301">
         <v>2043</v>
       </c>
@@ -35623,7 +35613,7 @@
         <v>13610875</v>
       </c>
     </row>
-    <row r="302" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:23">
       <c r="B302">
         <v>2043</v>
       </c>
@@ -35692,7 +35682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:23">
       <c r="B303">
         <v>2043</v>
       </c>
@@ -35761,7 +35751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:23">
       <c r="B304">
         <v>2043</v>
       </c>
@@ -35830,7 +35820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:23">
       <c r="B305">
         <v>2043</v>
       </c>
@@ -35899,7 +35889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:23">
       <c r="B306">
         <v>2043</v>
       </c>
@@ -35968,7 +35958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:23">
       <c r="B307">
         <v>2043</v>
       </c>
@@ -36037,7 +36027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:23">
       <c r="B308">
         <v>2043</v>
       </c>
@@ -36106,7 +36096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:23">
       <c r="B309">
         <v>2043</v>
       </c>
@@ -36175,7 +36165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:23">
       <c r="B310">
         <v>2044</v>
       </c>
@@ -36244,7 +36234,7 @@
         <v>13671004</v>
       </c>
     </row>
-    <row r="311" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:23">
       <c r="B311">
         <v>2044</v>
       </c>
@@ -36313,7 +36303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:23">
       <c r="B312">
         <v>2044</v>
       </c>
@@ -36382,7 +36372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:23">
       <c r="B313">
         <v>2044</v>
       </c>
@@ -36451,7 +36441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:23">
       <c r="B314">
         <v>2044</v>
       </c>
@@ -36520,7 +36510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:23">
       <c r="B315">
         <v>2044</v>
       </c>
@@ -36589,7 +36579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:23">
       <c r="B316">
         <v>2044</v>
       </c>
@@ -36658,7 +36648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:23">
       <c r="B317">
         <v>2044</v>
       </c>
@@ -36727,7 +36717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:23">
       <c r="B318">
         <v>2044</v>
       </c>
@@ -36796,7 +36786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:23">
       <c r="B319">
         <v>2045</v>
       </c>
@@ -36865,7 +36855,7 @@
         <v>13698105</v>
       </c>
     </row>
-    <row r="320" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:23">
       <c r="B320">
         <v>2045</v>
       </c>
@@ -36934,7 +36924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:23">
       <c r="B321">
         <v>2045</v>
       </c>
@@ -37003,7 +36993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:23">
       <c r="B322">
         <v>2045</v>
       </c>
@@ -37072,7 +37062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:23">
       <c r="B323">
         <v>2045</v>
       </c>
@@ -37141,7 +37131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:23">
       <c r="B324">
         <v>2045</v>
       </c>
@@ -37210,7 +37200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:23">
       <c r="B325">
         <v>2045</v>
       </c>
@@ -37279,7 +37269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:23">
       <c r="B326">
         <v>2045</v>
       </c>
@@ -37348,7 +37338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:23">
       <c r="B327">
         <v>2045</v>
       </c>
@@ -37417,7 +37407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:23">
       <c r="B328">
         <v>2046</v>
       </c>
@@ -37486,7 +37476,7 @@
         <v>13712468</v>
       </c>
     </row>
-    <row r="329" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:23">
       <c r="B329">
         <v>2046</v>
       </c>
@@ -37555,7 +37545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:23">
       <c r="B330">
         <v>2046</v>
       </c>
@@ -37624,7 +37614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:23">
       <c r="B331">
         <v>2046</v>
       </c>
@@ -37693,7 +37683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:23">
       <c r="B332">
         <v>2046</v>
       </c>
@@ -37762,7 +37752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:23">
       <c r="B333">
         <v>2046</v>
       </c>
@@ -37831,7 +37821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:23">
       <c r="B334">
         <v>2046</v>
       </c>
@@ -37900,7 +37890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:23">
       <c r="B335">
         <v>2046</v>
       </c>
@@ -37969,7 +37959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:23">
       <c r="B336">
         <v>2046</v>
       </c>
@@ -38038,7 +38028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:23">
       <c r="B337">
         <v>2047</v>
       </c>
@@ -38107,7 +38097,7 @@
         <v>13729347</v>
       </c>
     </row>
-    <row r="338" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:23">
       <c r="B338">
         <v>2047</v>
       </c>
@@ -38176,7 +38166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:23">
       <c r="B339">
         <v>2047</v>
       </c>
@@ -38245,7 +38235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:23">
       <c r="B340">
         <v>2047</v>
       </c>
@@ -38314,7 +38304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:23">
       <c r="B341">
         <v>2047</v>
       </c>
@@ -38383,7 +38373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:23">
       <c r="B342">
         <v>2047</v>
       </c>
@@ -38452,7 +38442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:23">
       <c r="B343">
         <v>2047</v>
       </c>
@@ -38521,7 +38511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:23">
       <c r="B344">
         <v>2047</v>
       </c>
@@ -38590,7 +38580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:23">
       <c r="B345">
         <v>2047</v>
       </c>
@@ -38659,7 +38649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:23">
       <c r="B346">
         <v>2048</v>
       </c>
@@ -38728,7 +38718,7 @@
         <v>13744756</v>
       </c>
     </row>
-    <row r="347" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:23">
       <c r="B347">
         <v>2048</v>
       </c>
@@ -38797,7 +38787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:23">
       <c r="B348">
         <v>2048</v>
       </c>
@@ -38866,7 +38856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:23">
       <c r="B349">
         <v>2048</v>
       </c>
@@ -38935,7 +38925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:23">
       <c r="B350">
         <v>2048</v>
       </c>
@@ -39004,7 +38994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:23">
       <c r="B351">
         <v>2048</v>
       </c>
@@ -39073,7 +39063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:23">
       <c r="B352">
         <v>2048</v>
       </c>
@@ -39142,7 +39132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:23">
       <c r="B353">
         <v>2048</v>
       </c>
@@ -39211,7 +39201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:23">
       <c r="B354">
         <v>2048</v>
       </c>
@@ -39280,7 +39270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:23">
       <c r="B355">
         <v>2049</v>
       </c>
@@ -39349,7 +39339,7 @@
         <v>13758281</v>
       </c>
     </row>
-    <row r="356" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:23">
       <c r="B356">
         <v>2049</v>
       </c>
@@ -39418,7 +39408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:23">
       <c r="B357">
         <v>2049</v>
       </c>
@@ -39487,7 +39477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:23">
       <c r="B358">
         <v>2049</v>
       </c>
@@ -39556,7 +39546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:23">
       <c r="B359">
         <v>2049</v>
       </c>
@@ -39625,7 +39615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:23">
       <c r="B360">
         <v>2049</v>
       </c>
@@ -39694,7 +39684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:23">
       <c r="B361">
         <v>2049</v>
       </c>
@@ -39763,7 +39753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:23">
       <c r="B362">
         <v>2049</v>
       </c>
@@ -39832,7 +39822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:23">
       <c r="B363">
         <v>2049</v>
       </c>
@@ -39901,7 +39891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:23">
       <c r="B364">
         <v>2050</v>
       </c>
@@ -39970,7 +39960,7 @@
         <v>13817684</v>
       </c>
     </row>
-    <row r="365" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:23">
       <c r="B365">
         <v>2050</v>
       </c>
@@ -40039,7 +40029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:23">
       <c r="B366">
         <v>2050</v>
       </c>
@@ -40108,7 +40098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:23">
       <c r="B367">
         <v>2050</v>
       </c>
@@ -40177,7 +40167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:23">
       <c r="B368">
         <v>2050</v>
       </c>
@@ -40246,7 +40236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:23">
       <c r="B369">
         <v>2050</v>
       </c>
@@ -40315,7 +40305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:23">
       <c r="B370">
         <v>2050</v>
       </c>
@@ -40384,7 +40374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:23">
       <c r="B371">
         <v>2050</v>
       </c>
@@ -40453,7 +40443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:23">
       <c r="B372">
         <v>2050</v>
       </c>
@@ -40535,7 +40525,7 @@
       <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
@@ -40543,7 +40533,7 @@
     <col min="4" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" s="20" t="s">
         <v>140</v>
       </c>
@@ -40641,7 +40631,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36">
       <c r="A2" s="73" t="s">
         <v>141</v>
       </c>
@@ -40741,7 +40731,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36">
       <c r="A3" s="73" t="s">
         <v>142</v>
       </c>
@@ -40841,7 +40831,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="A4" s="73" t="s">
         <v>143</v>
       </c>
@@ -40941,7 +40931,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="A5" s="73" t="s">
         <v>144</v>
       </c>
@@ -41041,7 +41031,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" s="73" t="s">
         <v>145</v>
       </c>
@@ -41141,7 +41131,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="A7" s="73" t="s">
         <v>146</v>
       </c>
@@ -41241,7 +41231,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36">
       <c r="A8" s="73" t="s">
         <v>147</v>
       </c>
@@ -41341,7 +41331,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36">
       <c r="A9" s="73" t="s">
         <v>148</v>
       </c>
@@ -41441,7 +41431,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36">
       <c r="A10" s="73" t="s">
         <v>149</v>
       </c>
@@ -41541,7 +41531,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36">
       <c r="A11" s="73" t="s">
         <v>150</v>
       </c>
@@ -41641,12 +41631,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" s="76" customFormat="1" ht="12.75">
       <c r="A14" s="75" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="75" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" s="75" customFormat="1" ht="12.75">
       <c r="A15" s="77"/>
       <c r="B15" s="75">
         <v>2020</v>
@@ -41754,7 +41744,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" s="77" customFormat="1" ht="12.75">
       <c r="A16" s="78" t="s">
         <v>153</v>
       </c>
@@ -41780,7 +41770,7 @@
       <c r="U16" s="79"/>
       <c r="V16" s="79"/>
     </row>
-    <row r="17" spans="1:36" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" s="76" customFormat="1" ht="12.75">
       <c r="A17" s="76" t="s">
         <v>141</v>
       </c>
@@ -41919,7 +41909,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" s="76" customFormat="1" ht="12.75">
       <c r="A18" s="76" t="s">
         <v>142</v>
       </c>
@@ -42058,7 +42048,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:36" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" s="76" customFormat="1" ht="12.75">
       <c r="A19" s="76" t="s">
         <v>143</v>
       </c>
@@ -42197,7 +42187,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:36" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" s="76" customFormat="1" ht="12.75">
       <c r="A20" s="76" t="s">
         <v>144</v>
       </c>
@@ -42336,7 +42326,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:36" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" s="76" customFormat="1" ht="12.75">
       <c r="A21" s="76" t="s">
         <v>145</v>
       </c>
@@ -42475,7 +42465,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:36" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" s="76" customFormat="1" ht="12.75">
       <c r="A22" s="76" t="s">
         <v>146</v>
       </c>
@@ -42614,7 +42604,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:36" s="84" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" s="84" customFormat="1" ht="12.75">
       <c r="A23" s="82" t="s">
         <v>156</v>
       </c>
@@ -42668,7 +42658,7 @@
       <c r="AH23" s="81"/>
       <c r="AI23" s="81"/>
     </row>
-    <row r="24" spans="1:36" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" s="76" customFormat="1" ht="12.75">
       <c r="A24" s="76" t="s">
         <v>147</v>
       </c>
@@ -42807,7 +42797,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:36" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" s="76" customFormat="1" ht="12.75">
       <c r="A25" s="76" t="s">
         <v>148</v>
       </c>
@@ -42946,7 +42936,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:36" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" s="76" customFormat="1" ht="12.75">
       <c r="A26" s="76" t="s">
         <v>149</v>
       </c>
@@ -43085,7 +43075,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:36" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" s="76" customFormat="1" ht="12.75">
       <c r="A27" s="76" t="s">
         <v>150</v>
       </c>
@@ -43224,7 +43214,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:36" s="84" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" s="84" customFormat="1" ht="12.75">
       <c r="A28" s="82" t="s">
         <v>158</v>
       </c>
@@ -43278,17 +43268,17 @@
       <c r="AH28" s="80"/>
       <c r="AI28" s="80"/>
     </row>
-    <row r="31" spans="1:36" s="85" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:36" s="85" customFormat="1" ht="33.75">
       <c r="B31" s="86" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:36" s="85" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" s="85" customFormat="1" ht="17.25" customHeight="1">
       <c r="B32" s="85" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="B33" s="85" t="s">
         <v>161</v>
       </c>
@@ -43452,7 +43442,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A34" s="85" t="s">
         <v>164</v>
       </c>
@@ -43616,7 +43606,7 @@
         <v>8941.1253098647539</v>
       </c>
     </row>
-    <row r="35" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A35" s="85" t="s">
         <v>164</v>
       </c>
@@ -43780,7 +43770,7 @@
         <v>9335.2229055276457</v>
       </c>
     </row>
-    <row r="36" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A36" s="85" t="s">
         <v>164</v>
       </c>
@@ -43944,7 +43934,7 @@
         <v>9449.9949414654075</v>
       </c>
     </row>
-    <row r="37" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A37" s="85" t="s">
         <v>164</v>
       </c>
@@ -44108,7 +44098,7 @@
         <v>49876.035846764251</v>
       </c>
     </row>
-    <row r="38" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A38" s="12" t="s">
         <v>150</v>
       </c>
@@ -44272,7 +44262,7 @@
         <v>48998.777404870685</v>
       </c>
     </row>
-    <row r="39" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A39" s="12" t="s">
         <v>150</v>
       </c>
@@ -44436,7 +44426,7 @@
         <v>48193.856381193618</v>
       </c>
     </row>
-    <row r="40" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A40" s="12" t="s">
         <v>147</v>
       </c>
@@ -44600,7 +44590,7 @@
         <v>16842.299684166632</v>
       </c>
     </row>
-    <row r="41" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A41" s="12" t="s">
         <v>149</v>
       </c>
@@ -44764,7 +44754,7 @@
         <v>16665.30579126858</v>
       </c>
     </row>
-    <row r="42" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A42" s="12" t="s">
         <v>149</v>
       </c>
@@ -44928,7 +44918,7 @@
         <v>16757.077087471102</v>
       </c>
     </row>
-    <row r="43" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A43" s="12" t="s">
         <v>147</v>
       </c>
@@ -45092,7 +45082,7 @@
         <v>49997.893522427854</v>
       </c>
     </row>
-    <row r="44" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A44" s="12" t="s">
         <v>148</v>
       </c>
@@ -45256,7 +45246,7 @@
         <v>49806.329843386644</v>
       </c>
     </row>
-    <row r="45" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A45" s="12" t="s">
         <v>148</v>
       </c>
@@ -45420,7 +45410,7 @@
         <v>32848.683068259023</v>
       </c>
     </row>
-    <row r="46" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A46" s="85" t="s">
         <v>164</v>
       </c>
@@ -45584,7 +45574,7 @@
         <v>49918.549378741227</v>
       </c>
     </row>
-    <row r="47" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A47" s="85" t="s">
         <v>178</v>
       </c>
@@ -45748,7 +45738,7 @@
         <v>19869.544927123421</v>
       </c>
     </row>
-    <row r="48" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A48" s="85" t="s">
         <v>178</v>
       </c>
@@ -45912,7 +45902,7 @@
         <v>20407.15243008138</v>
       </c>
     </row>
-    <row r="49" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A49" s="85" t="s">
         <v>178</v>
       </c>
@@ -46076,7 +46066,7 @@
         <v>20211.770846553783</v>
       </c>
     </row>
-    <row r="50" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A50" s="85" t="s">
         <v>178</v>
       </c>
@@ -46240,7 +46230,7 @@
         <v>3807.8853271450416</v>
       </c>
     </row>
-    <row r="51" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A51" s="85" t="s">
         <v>178</v>
       </c>
@@ -46404,7 +46394,7 @@
         <v>18552.652863838659</v>
       </c>
     </row>
-    <row r="52" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A52" s="85" t="s">
         <v>178</v>
       </c>
@@ -46568,7 +46558,7 @@
         <v>19882.163050778829</v>
       </c>
     </row>
-    <row r="53" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A53" s="85" t="s">
         <v>178</v>
       </c>
@@ -46732,7 +46722,7 @@
         <v>7249.3066990766138</v>
       </c>
     </row>
-    <row r="54" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A54" s="85" t="s">
         <v>178</v>
       </c>
@@ -46896,7 +46886,7 @@
         <v>9896.7090327829428</v>
       </c>
     </row>
-    <row r="55" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A55" s="85" t="s">
         <v>178</v>
       </c>
@@ -47060,7 +47050,7 @@
         <v>35740.823754379227</v>
       </c>
     </row>
-    <row r="56" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A56" s="85" t="s">
         <v>178</v>
       </c>
@@ -47224,7 +47214,7 @@
         <v>23790.748009964722</v>
       </c>
     </row>
-    <row r="57" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A57" s="12" t="s">
         <v>145</v>
       </c>
@@ -47388,7 +47378,7 @@
         <v>166426.06571909611</v>
       </c>
     </row>
-    <row r="58" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A58" s="12" t="s">
         <v>145</v>
       </c>
@@ -47552,7 +47542,7 @@
         <v>38356.83368908472</v>
       </c>
     </row>
-    <row r="59" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A59" s="12" t="s">
         <v>145</v>
       </c>
@@ -47716,7 +47706,7 @@
         <v>155258.70386157703</v>
       </c>
     </row>
-    <row r="60" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A60" s="12" t="s">
         <v>144</v>
       </c>
@@ -47880,7 +47870,7 @@
         <v>78994.790843715484</v>
       </c>
     </row>
-    <row r="61" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A61" s="12" t="s">
         <v>144</v>
       </c>
@@ -48044,7 +48034,7 @@
         <v>68790.444903315016</v>
       </c>
     </row>
-    <row r="62" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A62" s="12" t="s">
         <v>144</v>
       </c>
@@ -48208,7 +48198,7 @@
         <v>68126.066685689249</v>
       </c>
     </row>
-    <row r="63" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A63" s="12" t="s">
         <v>146</v>
       </c>
@@ -48372,7 +48362,7 @@
         <v>11871.71555095992</v>
       </c>
     </row>
-    <row r="64" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A64" s="12" t="s">
         <v>146</v>
       </c>
@@ -48536,7 +48526,7 @@
         <v>34354.151463321126</v>
       </c>
     </row>
-    <row r="65" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A65" s="12" t="s">
         <v>146</v>
       </c>
@@ -48700,7 +48690,7 @@
         <v>34961.745255937552</v>
       </c>
     </row>
-    <row r="66" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A66" s="12" t="s">
         <v>141</v>
       </c>
@@ -48864,7 +48854,7 @@
         <v>38399.901376300746</v>
       </c>
     </row>
-    <row r="67" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A67" s="12" t="s">
         <v>142</v>
       </c>
@@ -49028,7 +49018,7 @@
         <v>33700.276020704143</v>
       </c>
     </row>
-    <row r="68" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A68" s="12" t="s">
         <v>143</v>
       </c>
@@ -49192,7 +49182,7 @@
         <v>35644.527293675485</v>
       </c>
     </row>
-    <row r="69" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A69" s="12" t="s">
         <v>141</v>
       </c>
@@ -49356,7 +49346,7 @@
         <v>24778.887723792297</v>
       </c>
     </row>
-    <row r="70" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A70" s="12" t="s">
         <v>142</v>
       </c>
@@ -49520,7 +49510,7 @@
         <v>22251.772967826735</v>
       </c>
     </row>
-    <row r="71" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A71" s="12" t="s">
         <v>143</v>
       </c>
@@ -49684,12 +49674,12 @@
         <v>23473.477713170843</v>
       </c>
     </row>
-    <row r="72" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="B72" s="85" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="B73" s="85" t="s">
         <v>163</v>
       </c>
@@ -49850,9 +49840,9 @@
         <v>36810.263386482577</v>
       </c>
     </row>
-    <row r="74" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" s="85" customFormat="1" ht="15.75"/>
+    <row r="75" spans="1:55" s="85" customFormat="1" ht="15.75"/>
+    <row r="76" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A76" s="20" t="s">
         <v>204</v>
       </c>
@@ -49956,7 +49946,7 @@
       <c r="AI76" s="87"/>
       <c r="AJ76" s="87"/>
     </row>
-    <row r="77" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A77" s="12" t="s">
         <v>141</v>
       </c>
@@ -50092,7 +50082,7 @@
       <c r="AI77" s="88"/>
       <c r="AJ77" s="88"/>
     </row>
-    <row r="78" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A78" s="12" t="s">
         <v>142</v>
       </c>
@@ -50228,7 +50218,7 @@
       <c r="AI78" s="88"/>
       <c r="AJ78" s="88"/>
     </row>
-    <row r="79" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A79" s="12" t="s">
         <v>143</v>
       </c>
@@ -50364,7 +50354,7 @@
       <c r="AI79" s="88"/>
       <c r="AJ79" s="88"/>
     </row>
-    <row r="80" spans="1:55" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" s="85" customFormat="1" ht="15.75">
       <c r="A80" s="12" t="s">
         <v>144</v>
       </c>
@@ -50500,7 +50490,7 @@
       <c r="AI80" s="88"/>
       <c r="AJ80" s="88"/>
     </row>
-    <row r="81" spans="1:36" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" s="85" customFormat="1" ht="15.75">
       <c r="A81" s="12" t="s">
         <v>145</v>
       </c>
@@ -50636,7 +50626,7 @@
       <c r="AI81" s="88"/>
       <c r="AJ81" s="88"/>
     </row>
-    <row r="82" spans="1:36" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" s="85" customFormat="1" ht="15.75">
       <c r="A82" s="12" t="s">
         <v>146</v>
       </c>
@@ -50772,7 +50762,7 @@
       <c r="AI82" s="88"/>
       <c r="AJ82" s="88"/>
     </row>
-    <row r="83" spans="1:36" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" s="85" customFormat="1" ht="15.75">
       <c r="A83" s="12" t="s">
         <v>147</v>
       </c>
@@ -50908,7 +50898,7 @@
       <c r="AI83" s="88"/>
       <c r="AJ83" s="88"/>
     </row>
-    <row r="84" spans="1:36" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" s="85" customFormat="1" ht="15.75">
       <c r="A84" s="12" t="s">
         <v>148</v>
       </c>
@@ -51044,7 +51034,7 @@
       <c r="AI84" s="88"/>
       <c r="AJ84" s="88"/>
     </row>
-    <row r="85" spans="1:36" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" s="85" customFormat="1" ht="15.75">
       <c r="A85" s="12" t="s">
         <v>149</v>
       </c>
@@ -51180,7 +51170,7 @@
       <c r="AI85" s="88"/>
       <c r="AJ85" s="88"/>
     </row>
-    <row r="86" spans="1:36" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" s="85" customFormat="1" ht="15.75">
       <c r="A86" s="12" t="s">
         <v>150</v>
       </c>
@@ -51316,8 +51306,8 @@
       <c r="AI86" s="88"/>
       <c r="AJ86" s="88"/>
     </row>
-    <row r="87" spans="1:36" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" s="85" customFormat="1" ht="15.75"/>
+    <row r="88" spans="1:36" ht="15.75">
       <c r="A88" s="20" t="s">
         <v>206</v>
       </c>
@@ -51418,7 +51408,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="15.75">
       <c r="A89" s="12" t="s">
         <v>141</v>
       </c>
@@ -51551,7 +51541,7 @@
         <v>5996857491.3620796</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="15.75">
       <c r="A90" s="12" t="s">
         <v>142</v>
       </c>
@@ -51684,7 +51674,7 @@
         <v>6092649373.6413736</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="15.75">
       <c r="A91" s="12" t="s">
         <v>143</v>
       </c>
@@ -51817,7 +51807,7 @@
         <v>4921899033.8039122</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="15.75">
       <c r="A92" s="12" t="s">
         <v>144</v>
       </c>
@@ -51950,7 +51940,7 @@
         <v>4009203689.6150379</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="15.75">
       <c r="A93" s="12" t="s">
         <v>145</v>
       </c>
@@ -52083,7 +52073,7 @@
         <v>13858416762.7997</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="15.75">
       <c r="A94" s="12" t="s">
         <v>146</v>
       </c>
@@ -52216,7 +52206,7 @@
         <v>202489837.31678164</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="15.75">
       <c r="A95" s="12" t="s">
         <v>147</v>
       </c>
@@ -52349,7 +52339,7 @@
         <v>270851560.49265301</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="15.75">
       <c r="A96" s="12" t="s">
         <v>148</v>
       </c>
@@ -52482,7 +52472,7 @@
         <v>305107518.63828403</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" ht="15.75">
       <c r="A97" s="12" t="s">
         <v>149</v>
       </c>
@@ -52615,7 +52605,7 @@
         <v>648709168.4910059</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" ht="15.75">
       <c r="A98" s="12" t="s">
         <v>150</v>
       </c>
@@ -52748,7 +52738,7 @@
         <v>1128440351.9515312</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" ht="15.75">
       <c r="A100" s="20" t="s">
         <v>207</v>
       </c>
@@ -52849,7 +52839,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" ht="15.75">
       <c r="A101" s="12" t="s">
         <v>141</v>
       </c>
@@ -52982,7 +52972,7 @@
         <v>0.49603822209834753</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" ht="15.75">
       <c r="A102" s="12" t="s">
         <v>142</v>
       </c>
@@ -53115,7 +53105,7 @@
         <v>0.50396177790165253</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" ht="15.75">
       <c r="A103" s="12" t="s">
         <v>143</v>
       </c>
@@ -53248,7 +53238,7 @@
         <v>0.21406998251195397</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" ht="15.75">
       <c r="A104" s="12" t="s">
         <v>144</v>
       </c>
@@ -53381,7 +53371,7 @@
         <v>0.17437378496150294</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" ht="15.75">
       <c r="A105" s="12" t="s">
         <v>145</v>
       </c>
@@ -53514,7 +53504,7 @@
         <v>0.60274926683392283</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" ht="15.75">
       <c r="A106" s="12" t="s">
         <v>146</v>
       </c>
@@ -53647,7 +53637,7 @@
         <v>8.806965692620258E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" ht="15.75">
       <c r="A107" s="12" t="s">
         <v>147</v>
       </c>
@@ -53780,7 +53770,7 @@
         <v>0.11510372302483096</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" ht="15.75">
       <c r="A108" s="12" t="s">
         <v>148</v>
       </c>
@@ -53913,7 +53903,7 @@
         <v>0.12966146938292097</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" ht="15.75">
       <c r="A109" s="12" t="s">
         <v>149</v>
       </c>
@@ -54046,7 +54036,7 @@
         <v>0.27568178052155834</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" ht="15.75">
       <c r="A110" s="12" t="s">
         <v>150</v>
       </c>
@@ -54179,7 +54169,7 @@
         <v>0.47955302707068981</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" ht="15.75">
       <c r="A111" s="12"/>
       <c r="B111" s="87"/>
       <c r="C111" s="89"/>
@@ -54214,7 +54204,7 @@
       <c r="AF111" s="89"/>
       <c r="AG111" s="89"/>
     </row>
-    <row r="112" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" ht="15.75">
       <c r="A112" s="12" t="s">
         <v>251</v>
       </c>
@@ -54344,7 +54334,7 @@
         <v>0.58604270197066977</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" ht="15.75">
       <c r="A113" s="12" t="s">
         <v>252</v>
       </c>
@@ -54474,7 +54464,7 @@
         <v>0.41395729802933023</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" ht="15.75">
       <c r="A114" s="12"/>
       <c r="B114" s="87"/>
       <c r="C114" s="89"/>
@@ -54509,7 +54499,7 @@
       <c r="AF114" s="89"/>
       <c r="AG114" s="89"/>
     </row>
-    <row r="115" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" ht="15.75">
       <c r="A115" s="12"/>
       <c r="B115" s="87"/>
       <c r="C115" s="89"/>
@@ -54544,7 +54534,7 @@
       <c r="AF115" s="89"/>
       <c r="AG115" s="89"/>
     </row>
-    <row r="116" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" ht="15.75">
       <c r="A116" s="20" t="s">
         <v>208</v>
       </c>
@@ -54645,7 +54635,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" ht="15.75">
       <c r="A117" s="12" t="s">
         <v>141</v>
       </c>
@@ -54778,7 +54768,7 @@
         <v>56.052319097113269</v>
       </c>
     </row>
-    <row r="118" spans="1:33" s="103" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" s="103" customFormat="1" ht="15.75">
       <c r="A118" s="101" t="s">
         <v>253</v>
       </c>
@@ -54910,7 +54900,7 @@
         <v>50.50367386395402</v>
       </c>
     </row>
-    <row r="119" spans="1:33" s="103" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" s="103" customFormat="1" ht="15.75">
       <c r="A119" s="101" t="s">
         <v>254</v>
       </c>
@@ -55042,7 +55032,7 @@
         <v>35.673790157228566</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" ht="15.75">
       <c r="A120" s="12" t="s">
         <v>143</v>
       </c>
@@ -55175,7 +55165,7 @@
         <v>64.220994753586197</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" ht="15.75">
       <c r="A121" s="12" t="s">
         <v>144</v>
       </c>
@@ -55308,7 +55298,7 @@
         <v>58.066470392180477</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" ht="15.75">
       <c r="A122" s="12" t="s">
         <v>145</v>
       </c>
@@ -55441,7 +55431,7 @@
         <v>399.62276391089085</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" ht="15.75">
       <c r="A123" s="12" t="s">
         <v>146</v>
       </c>
@@ -55574,7 +55564,7 @@
         <v>2.7477732960975203</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" ht="15.75">
       <c r="A124" s="12" t="s">
         <v>147</v>
       </c>
@@ -55707,7 +55697,7 @@
         <v>13.236928147855561</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" ht="15.75">
       <c r="A125" s="12" t="s">
         <v>148</v>
       </c>
@@ -55840,7 +55830,7 @@
         <v>55.754431834656017</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" ht="15.75">
       <c r="A126" s="12" t="s">
         <v>149</v>
       </c>
@@ -55973,7 +55963,7 @@
         <v>47.417266249708035</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" ht="15.75">
       <c r="A127" s="12" t="s">
         <v>150</v>
       </c>
@@ -56106,10 +56096,10 @@
         <v>309.79125548766564</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33">
       <c r="A128" s="20"/>
     </row>
-    <row r="129" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" ht="15.75">
       <c r="A129" s="20" t="s">
         <v>209</v>
       </c>
@@ -56207,7 +56197,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33">
       <c r="A130" s="12" t="s">
         <v>154</v>
       </c>
@@ -56336,7 +56326,7 @@
         <v>106.55599296106729</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33">
       <c r="A131" s="12" t="s">
         <v>155</v>
       </c>
@@ -56465,7 +56455,7 @@
         <v>560.33179250998364</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33">
       <c r="A132" s="12" t="s">
         <v>157</v>
       </c>
@@ -56594,7 +56584,7 @@
         <v>426.19988171988524</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" ht="15.75">
       <c r="A134" s="20" t="s">
         <v>210</v>
       </c>
@@ -56692,7 +56682,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33">
       <c r="A135" s="12" t="s">
         <v>154</v>
       </c>
@@ -56820,7 +56810,7 @@
         <v>-2.7263052731958393E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33">
       <c r="A136" s="12" t="s">
         <v>155</v>
       </c>
@@ -56948,7 +56938,7 @@
         <v>1.2829792993040989E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33">
       <c r="A137" s="12" t="s">
         <v>157</v>
       </c>
@@ -57092,7 +57082,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="5" width="18.5703125" customWidth="1"/>
@@ -57102,7 +57092,7 @@
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
@@ -57131,7 +57121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -57162,7 +57152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -57192,7 +57182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -57221,7 +57211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -57250,7 +57240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -57279,7 +57269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -57325,7 +57315,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="5" width="18.5703125" customWidth="1"/>
@@ -57335,7 +57325,7 @@
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="60">
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
@@ -57364,7 +57354,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -57395,7 +57385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -57425,7 +57415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -57454,7 +57444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -57483,7 +57473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -57512,7 +57502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
